--- a/schedule_tokyo_trip.xlsx
+++ b/schedule_tokyo_trip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joostone/PycharmProjects/lg-mvp-tokyo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3E547-1BB1-034F-B185-8C774FF2551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E378B4-4081-5E42-9837-D0F24F2B0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="156">
   <si>
     <t>day</t>
   </si>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아키하바라</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Shibuya Tsutaya</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,9 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Yodobashi Akiba </t>
-  </si>
-  <si>
     <t xml:space="preserve">KITTE Marunouchi </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,10 +251,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">사람과 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/h575m2pY7KnTnSNw6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -279,10 +268,6 @@
   </si>
   <si>
     <t>로봇이 고객 응대, 서빙, 청소, 요리 등의 실제 업무에서 사람과 어떻게 역할을 분담하며 협업하고 있는지 확인하고, 이를 통해 어떤 고객 가치를 제안하고자 하는지 알아봅니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>디너 좌석 예 (음료만 이용 시 예약없이 방문 가능): https://www.tablecheck.com/en/shops/dawncafe2021/reserve</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -479,6 +464,415 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>시부야 츠타야(Shibuya Tsutaya)와 올리브 라운지(Olive Lounge)는 디지털 전환과 라이프스타일 변화 속에서 일본의 오프라인 공간이 고객과의 접점을 어떻게 재정의하는지 보여주는 대표적 사례입니다.
+두 공간의 공통점은 단순한 판매·서비스 제공 공간을 넘어 ‘장시간 머물고 싶게 만드는 경험’을 설계한다는 것입니다.
+디지털화로 위기를 맞은 오프라인 비즈니스가 ‘머무는 가치’를 창출하기 위해 큐레이션, 팬덤, 금융 상담, 공유 라운지 등으로 다층화·세분화된 체험을 설계했습니다.
+또한, 스타벅스와 같은 친숙한 글로벌 브랜드를 연계해 방문 허들을 낮추고, 고객이 자연스럽게 더 깊이 머물도록 유도하는 전략을 확인할 수 있습니다.
+‘시부야 츠타야’와 ‘올리브 라운지’가 추구하는 좋은 경험이란 무엇인지,
+물리적인 환경(하드웨어) – 사람 – 프로세스(소프트웨어) 관점에서 생각해 봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/TmkfQftx9i9hp1Et9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 서비스의 가전 라이프관</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅카메라(BIC Camera)는 단순한 전자제품 매장을 넘어, 원스톱 라이프스타일 쇼핑과 고객 맞춤형 서비스라는 차별화된 경험을 제공합니다.
+최신 가전, 카메라, 게임기, 뷰티기기, 시계, 장난감, 생활용품, 화장품, 주류 등 거의 모든 카테고리를 한 곳에서 비교·구매할 수 있어, 쇼핑의 효율성을 극대화합니다.
+고객이 원하는 제품을 직접 만져보고 상세한 설명과 추천을 받을 수 있는 체험형 매장으로, 고객이 원하는 모든 것을 한 번에, 편리하게, 합리적으로 경험할 수 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅카메라는 단순한 전자제품 판매를 넘어 체험형 쇼핑에 중점을 둔다는 점이 가장 큰 강점입니다.
+매장 곳곳에는 실제로 제품을 만지고 사용해볼 수 있는 데모 스테이션이 마련되어 있어, 최신 카메라, 가전, 게임기, 뷰티기기 등 다양한 상품을 직접 체험하고 비교할 수 있습니다.
+이 덕분에 초보자부터 전문가까지 자신에게 맞는 제품을 신중하게 선택할 수 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIC Camera 본관과 별관의 매장 설계의 차이점을 찾아봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+아자부 힐즈 플로어 맵: https://platinumaps.jp/d/azabudaihills?culture=ko</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azabudai Hills는 도시 재생의 새로운 모델로, 자연문화상업기술이 유기적으로 융합된 도시형 생태 마을입니다.
+Mori JP Tower를 중심으로 펼쳐진 곡선형 저층 건물과 녹지, 보행자 친화적 동선은 도시의 경직된 이미지를 탈피하고 자연과의 조화를 구현합니다.
+옥상과 보행로, 플라자에는 사계절 내내 녹음이 가득하며, 곳곳의 예술작품과 조형물은 도시 생활의 경계에서 허무는 감각적 자극을 선사합니다.
+Hills 내부 B1F에 위치한 Azabudai Hills Market(최상급 Grocery, 간이 푸드 코트), Dashi Okume Azabudai Hills(맞춤형 육수 추천) 을 체험 수행 시 함께 살펴보면 좋습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Q9,10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가보지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>곳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후 팀 일정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 개인 일정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방문</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람과 로봇이 함께 일하는 사회라는 비전을 직접 경험합니다. 휴머노이드 로봇 페퍼가 고객을 맞이하고, 주문을 받고, 서빙을 하고, 음식을 조리하고, 댄스 공연을 펼칩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/3kk9sN6DcAAqu4aS9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본을 대표하는 할인 잡화점의 본점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본 돈키호테는 1989년 창업 이후 단 한 번도 매출이 감소한 적이 없으며, 특히 ‘잃어버린 20년’ 동안에도 매출은 700배, 경상이익은 3,600배나 성장하였고, 2023년 기준 약 7,530억 엔의 매출액을 기록하였습니다.
+특히 보물 찾기 하듯 재미있는 ‘원스톱 쇼핑’ 경험을 제공하고, 외국인 관광객 고객 증가가 주요 성장 동력 중 하나이며, 온라인 쇼핑이 활성화된 시대에도 오프라인 매장 고유의 매력을 통해 고객을 확대하고 있습니다.
+조직 운영 상으로는 각 지점별 구성원들에게 높은 수준의 의사결정권을 부여하여, 직원들이 주도적으로 일할 수 있는 환경 지원을 강화하고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시부야 본점은 일반 매장의 2배 규모로 총 8개 층으로 구성되어 있습니다.
+상품을 저렴하게 판매하는 것을 넘어 고객에게 즐거운 쇼핑 경험을 선사하는 것을 목적으로 하고 있습니다.
+마치 창고를 연상시키는 빽빽히 쌓아 놓은 제품들, 사람 한 명이 겨우 지나갈 정도로 좁은 통로는 다른 유통업체와 확연히 다른 느낌입니다.
+돈키호테는 매장을 정리하는 직원을 고용하는 대신 제품을 싸게 공급하는 전략을 취합니다.
+또한 창고처럼 만들어진 매장은 고객들이 보물찾기를 하는 감각을 가지도록 하려는 의도도 숨어 있습니다.
+물건을 찾기 위해 매장 이곳저곳을 돌아다니면서 소비자는 자연스럽게 매장에 오래 머물게 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품을 통일성 없이 의도적으로 복잡하게 진열하는 ‘압축 진열’ 전략이 어떻게 고객에게 ‘보물찾기’의 재미와 충동 구매를 유도하는지 생각해 봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 일본에서 주목받는 소비 트렌드인 “내가 찾아 내는 재미”, “내가 선택할 수 있는 방식”을 통해서 디지털 시대에 살아남는 경험을 제공하는 대표적인 두 공간이 바로 돈키호테와 SUMADORI-BAR입니다.
+일본 돈키호테는 기존 유통 공식을 깨고 고객들에게 ‘재미’와 ‘발견’의 즐거움을 줍니다.
+의도적인 ‘압축 진열’을 통해서 상품을 천장까지 빽빽하게 쌓아 올려 복잡하고 어수선한 곳에서 보물찾기를 하듯 매장을 탐험하며 예상치 못한 상품을 발견하는 즐거움을 느끼도록 합니다.
+이를 위해서 매장 직원에게 전권을 부여하여 담당 코너의 상품 매입, 진열, 가격 결정 권한까지 직접 함으로써 책임감과 업무 몰입도가 높아지고, 각 지역별 매장의 독특한 개성을 살리려고 합니다.
+다양하고 저렴한 상품 구성을 식품, 화장품, 생활용품 등에 이르기까지 갖추고, 독특한 자체 브랜드(PB) 상품을 적극 확충하고 있습니다.
+관광객 맞춤형 전략으로 외국인 관광객이 많이 찾는 매장에는 외국어 안내 서비스를 제공하고, 면세 혜택과 다국어 POP 광고를 적극적으로 활용하여, 늦은 시간까지 편하게 쇼핑할 수 있도록 대부분의 매장이 심야까지(혹은 24시간) 영업합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈키호테의 마케팅과 엔터테인먼트적 요소를 결합한 독자적인 매장 분위기(중독성 있는 음악, 화려한 조명 등)가 소비자의 쇼핑 경험을 어떻게 단순한 구매 행위 이상의 즐거움으로 바꾸는지에 대해서 논의해 봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/6eTT8E8kDVhgUnUu8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우체국 건물을 개조해 만든 일본 전통을 테마로한 상업시설</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>도쿄역 마루노우치 남쪽 출구에 위치한 복합 상업 시설인 Kitte Marunouchi는 옛 도쿄 중앙 우체국 건물을 리모델링한 곳입니다.
+건물 이름인 ‘킷테(KITTE)’는 ‘우표(切手)’와 ‘오세요(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>て)’의 중의적 의미를 담고 있습니다.
+일본의 장인 정신을 담은 순수 Made in Japan 고급 잡화 브랜드가 모여 있습니다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitte Marunouchi는 건축가 구마 겐고가 디자인한 내부 공간은 중앙의 개방된 공간과 유리 천장이 특징이며, 쇼핑몰은 지하 1층부터 지상 6층까지 약 100여 개의 점포로 구성되어 있습니다.
+일본 전국의 특산물을 취급하는 상점가, 잡화점, 다양한 브랜드 매장 등이 입점해 있습니다.
+특히 5~6층에는 전국 각지에서 모인 유명 레스토랑이 많아 식도락을 즐기기 좋습니다.
+6층에 위치한 무료 옥상 정원인 ‘KITTE 가든’에서는 도쿄역의 아름다운 외관과 마루노우치 일대의 야경을 감상할 수 있습니다.
+이곳은 여행객들에게 필수 방문 코스로 꼽히며, 특히 밤에 보는 도쿄역의 모습은 장관을 이룹니다.
+과거 우체국장실이 보존되어 있어 옛 건물의 흔적을 엿볼 수 있으며, 쇼핑과 식사뿐 아니라 역사와 전망을 함께 즐길 수 있는 특별한 공간입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주로 어떠한 취향을 가진 고객들이 이곳을 다시 방문하고 싶어할지 생각해 봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitte Marunouchi는 ‘일본의 독특함과 새로움’을 콘셉트로, 일본 전역의 개성 있는 상품과 맛집을 엄선하여 고객에게 특별한 경험을 큐레이션합니다.
+쇼핑에서는 지역 장인 정신이 깃든 공예품과 디자인 상품을 중심으로, 여행객에게는 기념품, 현지인에게는 일상 속 특별함을 제안합니다.
+식음료(F&amp;B)는 지역 특산물을 활용한 맛집을 모아, 단순히 한 끼를 해결하는 것을 넘어 일본의 미식 문화를 탐험하는 경험을 제공합니다.
+특히 지하 1층의 ‘킷테 그랑쉐(Kitte Granche)’는 전국 각지의 다양한 음식을 한자리에서 맛볼 수 있는 미식 탐험의 장으로 기획되었습니다.
+문화적 서비스 측면에서는, 옛 도쿄 중앙 우체국의 역사적 공간을 활용해 건물 자체가 하나의 볼거리이자 문화 공간이 되도록 했습니다.
+옥상 정원에서는 도쿄역의 아름다운 전망을 선사하여, 쇼핑객들이 휴식과 감동을 동시에 느낄 수 있도록 배려합니다.
+시즌별로 바뀌는 중앙 홀의 전시와 일루미네이션은 반복 방문을 유도하는 중요한 큐레이션 요소입니다.
+결론적으로, Kitte Marunouchi는 공간, 상품, 미식, 문화를 유기적으로 엮어 고객이 ‘일본의 정수’를 깊이 있게 경험하도록 큐레이션하는 리테일 공간입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>디너 좌석 예약: https://www.tablecheck.com/en/shops/dawncafe2021/reserve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드와 연결하는 체험형 플랫폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/VJVxGZmHZcjXqLfg7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8ta Tokyo는 기존의 ‘판매 중심’ 리테일과 완전히 다른, ‘체험과 발견’을 최우선으로 하는 혁신적 공간입니다.
+최신 디지털 기기부터 뷰티, 식품, 라이프스타일 제품까지 국내외 신생 브랜드와 대기업의 신제품을 직접 만지고, 써보고, 느껴볼 수 있습니다.
+매장에 들어서면 직원이 적극적으로 판매를 권하지 않고, 고객이 스스로 관심 있는 제품을 자유롭게 체험할 수 있도록 설계되어 있습니다.
+상품의 기능, 브랜드 스토리, 개발 배경 등 심층적인 설명을 들을 수 있고, 실제 사용감과 피드백을 브랜드에 직접 전달할 수 있어 ‘소비자와 기업이 함께 성장하는 실험실’ 역할을 합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8ta Tokyo는 시부야역 인근, 접근성이 뛰어난 위치에 자리하며, 세련된 오픈형 공간에 다양한 체험존이 마련되어 있습니다.
+매장에는 가전, 뷰티, 코스메틱, 패션, 식품 등 폭넓은 카테고리의 신제품이 장르 구분 없이 배치되어, 방문객이 자유롭게 동선을 정할 수 있습니다.
+각 제품 옆에는 테스트와 디지털 정보가 준비되어 있어, 직접 만지고 사용해보며, 궁금한 점은 ‘b8ta 테스터’라 불리는 전문 직원이 친절하게 설명해줍니다.
+AI 카메라로 고객 행동 데이터를 수집해 브랜드에 제공하는 등, 리테일의 미래를 보여주는 ‘Retail as a Service’ 모델의 대표 사례로, 단순 쇼핑을 넘어 ‘새로운 발견의 즐거움’을 경험할 수 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>올리브 라운지에서는 금융기관인 SMBC와 츠타야를 운영하는 CCC가 협업해,
 기존 은행 지점을 ‘체험형 고객 접점’으로 재설계한 전략을 탐색합니다.
 지하 1층부터 지상 2층까지 총 3개 층으로 구성되어 있으며,
@@ -492,55 +886,29 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>시부야 츠타야(Shibuya Tsutaya)와 올리브 라운지(Olive Lounge)는 디지털 전환과 라이프스타일 변화 속에서 일본의 오프라인 공간이 고객과의 접점을 어떻게 재정의하는지 보여주는 대표적 사례입니다.
-두 공간의 공통점은 단순한 판매·서비스 제공 공간을 넘어 ‘장시간 머물고 싶게 만드는 경험’을 설계한다는 것입니다.
-디지털화로 위기를 맞은 오프라인 비즈니스가 ‘머무는 가치’를 창출하기 위해 큐레이션, 팬덤, 금융 상담, 공유 라운지 등으로 다층화·세분화된 체험을 설계했습니다.
-또한, 스타벅스와 같은 친숙한 글로벌 브랜드를 연계해 방문 허들을 낮추고, 고객이 자연스럽게 더 깊이 머물도록 유도하는 전략을 확인할 수 있습니다.
-‘시부야 츠타야’와 ‘올리브 라운지’가 추구하는 좋은 경험이란 무엇인지,
-물리적인 환경(하드웨어) – 사람 – 프로세스(소프트웨어) 관점에서 생각해 봅니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/TmkfQftx9i9hp1Et9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤형 서비스의 가전 라이프관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅카메라(BIC Camera)는 단순한 전자제품 매장을 넘어, 원스톱 라이프스타일 쇼핑과 고객 맞춤형 서비스라는 차별화된 경험을 제공합니다.
-최신 가전, 카메라, 게임기, 뷰티기기, 시계, 장난감, 생활용품, 화장품, 주류 등 거의 모든 카테고리를 한 곳에서 비교·구매할 수 있어, 쇼핑의 효율성을 극대화합니다.
-고객이 원하는 제품을 직접 만져보고 상세한 설명과 추천을 받을 수 있는 체험형 매장으로, 고객이 원하는 모든 것을 한 번에, 편리하게, 합리적으로 경험할 수 있습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅카메라는 단순한 전자제품 판매를 넘어 체험형 쇼핑에 중점을 둔다는 점이 가장 큰 강점입니다.
-매장 곳곳에는 실제로 제품을 만지고 사용해볼 수 있는 데모 스테이션이 마련되어 있어, 최신 카메라, 가전, 게임기, 뷰티기기 등 다양한 상품을 직접 체험하고 비교할 수 있습니다.
-이 덕분에 초보자부터 전문가까지 자신에게 맞는 제품을 신중하게 선택할 수 있습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIC Camera 본관과 별관의 매장 설계의 차이점을 찾아봅니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/VJVxGZmHZcjXqLfg7</t>
-  </si>
-  <si>
-    <t>b8ta Tokyo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-아자부 힐즈 플로어 맵: https://platinumaps.jp/d/azabudaihills?culture=ko</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azabudai Hills는 도시 재생의 새로운 모델로, 자연문화상업기술이 유기적으로 융합된 도시형 생태 마을입니다.
-Mori JP Tower를 중심으로 펼쳐진 곡선형 저층 건물과 녹지, 보행자 친화적 동선은 도시의 경직된 이미지를 탈피하고 자연과의 조화를 구현합니다.
-옥상과 보행로, 플라자에는 사계절 내내 녹음이 가득하며, 곳곳의 예술작품과 조형물은 도시 생활의 경계에서 허무는 감각적 자극을 선사합니다.
-Hills 내부 B1F에 위치한 Azabudai Hills Market(최상급 Grocery, 간이 푸드 코트), Dashi Okume Azabudai Hills(맞춤형 육수 추천) 을 체험 수행 시 함께 살펴보면 좋습니다.</t>
+    <t>b8ta Tokyo (방문 미정)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 공간은 모두 “체험을 통한 설득”을 지향하고 있습니다.
+b8ta Tokyo는 신생 브랜드와 고객이 함께 성장하는 ‘실험실’이자, 브랜드가 고객 피드백을 직접 수집하는 ‘Retail as a Service’ 모델을 구현하고 있습니다.
+빅카메라는 다양한 브랜드의 제품을 한자리에서 직접 비교·체험할 수 있게 함으로써, 고객이 합리적이고 자신에게 맞는 선택을 하도록 돕습니다.
+빅카메라에서는 ‘원스톱 라이프스타일 쇼핑’이라는 차별화 전략을 체험해 보시기 바랍니다.
+입구에서 층별 안내판을 보고 원하는 카테고리를 직접 선택해 이동하며 다양한 전자 기기를 체험 및 구매할 수 있습니다.
+특히 1층과 2층 IT·디지털 존에서는 스마트폰, 카메라, 음향기기를 마음껏 만져보고, 각 브랜드별 사용감과 장점을 비교할 수 있습니다.
+스태프에게 상세한 설명과 추천을 받아보며 초보자부터 전문가까지 맞춤형 선택을 할 수 있는 환경을 경험해 보시기 바랍니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8ta Tokyo를 방문하면, 우선 입구에서 매장 전체를 한눈에 조망하며 자유롭게 동선을 정할 수 있습니다.
+관심 있는 제품을 발견하면, b8ta 테스터(전문 직원)나 안내 태블릿을 참고해 브랜드 스토리와 기능, 사용법을 자세히 확인하고 직접 체험해보세요.
+매장 내에서는 구매 압박이 없으므로, 충분히 체험하고 고민한 뒤, 필요하다면 현장 또는 온라인으로 구매할 수 있습니다.
+매장 내 가구와 전시가 수시로 바뀌고, 신제품이 자주 교체되므로, 방문할 때마다 새로운 발견과 체험이 가능합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8ta Tokyo에서 각 카테고리(가전, 뷰티, 식품 등)를 장르 구분 없이 배치하고 구매 압박 없이 관심 있는 제품을 자유롭게 선택해 탐색할 수 있도록 하고, 안내 태블릿과 테스터(전문 직원)를 둔 이유가 무엇인지 팀원들과 논의해 봅니다.
+BIC Camera와 비교하여 b8ta Tokyo의 사업 모델은 무엇인지 생각해 봅니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +916,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +954,27 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,7 +1016,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -637,6 +1029,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -944,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1004,501 +1400,563 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>3</v>
+      <c r="B2" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="324">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>10</v>
+      <c r="B3" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="377">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>7</v>
+      <c r="B4" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="324">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>7</v>
+      <c r="B5" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="342">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
-        <v>9</v>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="306">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
-        <v>9</v>
+      <c r="B7" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="342">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>8</v>
+      <c r="B8" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="360">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>8</v>
+      <c r="B9" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="409.6">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>4</v>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="409.6">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
+      <c r="B11" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="12" spans="1:12" ht="252">
+    <row r="12" spans="1:12" ht="409.6">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>5</v>
+      <c r="B12" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="252">
+    <row r="13" spans="1:12" ht="342">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>5</v>
+      <c r="B13" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="324">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
-        <v>7</v>
+      <c r="B14" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18">
+    <row r="15" spans="1:12" ht="409.6">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>6</v>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="18">
+    <row r="16" spans="1:12" ht="409.6">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
-        <v>10</v>
+      <c r="B16" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="18">
+    <row r="17" spans="1:6" ht="18">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="D18" s="3"/>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1513,7 +1971,10 @@
     <hyperlink ref="D9" r:id="rId8" xr:uid="{3F3A3DF8-2772-8549-B302-22D1306C3EA8}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{B95C2BEF-4B00-EA42-B8F6-2FC2394C5ED8}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{CC8DF0DD-EC6B-D246-9901-AF7B39ADAC1A}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{C4E5CEE1-C7D6-1047-9381-2E9CEDD7A0AD}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{C4E5CEE1-C7D6-1047-9381-2E9CEDD7A0AD}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{5D969C1F-CC64-6B46-901A-3514A760BDBE}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{90AF0668-110A-7541-83D6-0B5B569C3FFB}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{67047108-4B5A-A546-9B4C-E717A6B7F5C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule_tokyo_trip.xlsx
+++ b/schedule_tokyo_trip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joostone/PycharmProjects/lg-mvp-tokyo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E378B4-4081-5E42-9837-D0F24F2B0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2789F67B-5E43-4F4E-9089-B0BF9F343E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
   <si>
     <t>day</t>
   </si>
@@ -609,80 +609,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>오전 개인 일정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방문</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>사람과 로봇이 함께 일하는 사회라는 비전을 직접 경험합니다. 휴머노이드 로봇 페퍼가 고객을 맞이하고, 주문을 받고, 서빙을 하고, 음식을 조리하고, 댄스 공연을 펼칩니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -909,6 +835,112 @@
   <si>
     <t>b8ta Tokyo에서 각 카테고리(가전, 뷰티, 식품 등)를 장르 구분 없이 배치하고 구매 압박 없이 관심 있는 제품을 자유롭게 선택해 탐색할 수 있도록 하고, 안내 태블릿과 테스터(전문 직원)를 둔 이유가 무엇인지 팀원들과 논의해 봅니다.
 BIC Camera와 비교하여 b8ta Tokyo의 사업 모델은 무엇인지 생각해 봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저성장 시대의 생활 인프라 브랜드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔을 넘어선 품질 혁신</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 감성과 실용 소비의 결합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>THREEPPY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Products</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Ds6MRoW8hDH2q8Wr6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ZgpJ73AYCBkUHV7V9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/iFgBATxvSH1TtdZN9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1972년 시작한 다이소는 1999년 1,200개, 2002년 2,400개, 2010년 3,000개 매장을 돌파하며 성장했고, 현재는 일본 내 3,000여 개, 해외 27개국에 약 2,000개 매장을 운영 중입니다. 총 7만여 종의 상품을 보유하고, 매월 500~700개의 신제품을 출시하는 SPA형 모델을 구축해 전체 상품의 약 99%를 자사 기획 상품으로 채우고 있습니다. 연매출은 약 4,200억 엔, 연간 10억 명이 방문할 만큼 글로벌 생활 인프라 브랜드로 성장했습니다. 특히 고령화와 장기 저성장의 고착된 일본에서 다이소는 낮은 가격에 높은 만족을 제공하며, 생활밀착형 소비 채널로서 입지를 확고히 했습니다. ‘100엔 숍’을 넘어 일상 문제 해결형 브랜드로 진화하며, 생활을 지탱하는 인프라 브랜드로 자리매김하고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소 매장은 ‘100엔 균일가’라는 기본 전략을 유지하면서도, 150엔부터 최대 1,000엔대까지 고부가가치 상품을 함께 구성하여 가격 선택의 폭을 넓히고 있습니다. 대부분의 상품에는 가격표가 없으며, 100엔을 초과하는 상품에만 별도로 가격이 표시되어 있어 고객은 가격표가 없으면 100엔이라는 직관적인 인식을 갖게 됩니다. 이는 다이소만의 가격 철학을 공간에 자연스럽게 녹여낸 설계로, 브랜드 정체성을 일관되게 전달합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 정보가 최소화된 진열 방식이 소비자 심리에 어떤 영향을 주는지, 그리고 그것이 매장 회전율과 구매 결정 속도에 어떻게 기여하는지 고민해봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Products(스탠다드 프로덕츠)는 ‘일상에 특별함을 더하는 합리적 가치’를 바탕으로, 2021년 다이소에서 런칭한 300엔 숍 브랜드입니다. 부담 없이 다양한 제품을 경험할 수 있게 하며, 단순히 저렴함에 그치지 않고, 환경을 배려한 소재와 엄선된 원자재의 상품, 그리고 세련된 디자인을 결합해 ‘조금 더 좋은 것이 계속 좋은 것이다(A little nice, goes the extra mile)’는 브랜드 철학을 실현합니다. 상품의 70%가 300엔이라는 가격대에도 불구하고 몇 번 쓰고 버리는 것이 아닌 오래 기간 사용할 수 있는 품질, 연령 및 성별에 상관없이 질리지 않는 디자인이 특징입니다. 이처럼 일상용품에 대한 새로운 시각과 소비 가치를 제안함으로써, 고객은 단순한 구매를 넘어 라이프스타일의 변화를 체험하게 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드 프로덕츠는 군더더기 없는 디자인과 고품질의 제품을 300엔 가격대에 판매하며 다이소의 상품 개발력과 매장 운영 노하우를 유지합니다. 다이소보다 가격대는 높지만, 상품의 배경과 철학까지 경험할 수 있도록 설계된 공간으로, 고객은 물건 이상의 가치를 느끼며 높은 충성도와 반복 방문으로 이어집니다. 브랜드 철학, 고객 가치 전략, 디자인 감수성을 보여주는 쇼케이스로서 의미 있는 소비를 추구하는 고객에게 깊은 인상을 줍니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통 장인 및 지역 제조사와의 협업 구조가 상품의 차별성을 확보하고, 브랜드의 정체성과 메시지를 전달하는 데 어떤 역할을 하고 있는지 살펴봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰리피(THREEPPY)는 다이소에서 2018년 런칭한 300엔 숍 브랜드로, ‘Three(300엔)’와 ‘Happy(행복)’의 조합에서 비롯된 브랜드명처럼 작지만 확실한 행복을 전하는 디자인 중심형 라이프스타일 브랜드입니다. 저가 이미지에서 벗어나 디자인과 취향 기반 소비로 새로운 가치를 창출하고자 한 쓰리피는 300엔대 감성 소비라는 시장을 개척했습니다. Standard Products가 차분하고 미니멀한 분위기라면, THREEPPY는 컬러풀하고 트렌디한 감성으로 쇼핑의 즐거움을 극대화합니다. 명확한 타겟팅과 차별화를 통해 디자인 감성과 실용 소비를 균형 있게 결합하여 또 다른 시장을 만들어 나가고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가 이미지에서 벗어나 디자인과 취향 기반 소비로 새로운 가치를 창출하고자 한 쓰리피는 패션잡화, 인테리어, 소형 가전 등 2,400여 개의 트렌디한 제품을 큐레이션하며 고객에게 선보이고 있습니다. 세련되고 귀여운 디자인의 생활용품, 액세서리, 주방용품 등이 주를 이룹니다. 디즈니 등 인기 캐릭터와의 콜라보 상품, 시즌별 한정 아이템 등은 타 매장과 차별화된 쇼핑 경험을 선사하며, 긴자라는 프리미엄 상권에서도 부담 없이 ‘귀여운 일상을 실현할 수 있다’는 점이 국내외 고객 모두에게 큰 매력으로 다가옵니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자 사는 20~30대 여성이라는 타깃층에 맞춰 제품군이 어떻게 기획되어 있는지, 제품 큐레이션과 고객 맞춤 전략을 알아봅니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴자는 일본에서 땅값이 가장 비싸고, 고급 브랜드가 밀집한 상징적인 공간 중 하나입니다. 이러한 긴자 한복판의 같은 건물에 위치한 다이소의 플래그십 스토어(DAISO·Standard Products·THREEPPY)는 ‘지갑이 얇아도 들를 수 있는’ 매장으로서 기존의 럭셔리 소비 공간을 새롭게 해석하고, 누구나 부담 없이 브랜드 철학을 체험할 수 있는 장소를 제안하고 있습니다.
+다이소는 저렴함 외에 다른 무기를 위해 스탠다드 프로덕츠, 쓰리피 등 브랜드 런칭으로 대응해왔습니다. 전방위적으로 고객 기반을 넓히기 위하여 마로니에 게이트 긴자 6층에 ‘다이소 글로벌 플래그십 스토어’를 열었으며, 3개 매장이 한 층에 모여 있습니다. 특히 이 세 브랜드는 한 층에서 통합 경험을 디자인하고 있습니다. 이는 긴자의 고급스러운 공간성 안에서 ‘저렴하지만 가치 있는’ 브랜드 철학을 다양하게 보여주며, 고객으로 하여금 가격대 별, 라이프스타일 별로 선택지를 넓히고 생활 전반의 문제 해결부터 감성 소비까지 전방위적으로 고객을 포용하는 전략을 구체적으로 드러냅니다.
+※ 동일 건물(Marronnier Gate Ginza 2)의 1~4층에는 ‘유니클로’가, B1~B2F에는 ‘OK Ginza’(극가성비 종합 Grocery super Market)에는 어떠한 고객을 타겟으로 하고 있는지, 체험 수행 시 함께 살펴보면 좋습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 회사의 세 가지 하위 브랜드(DAISO·Standard Products·THREEPPY)는 같은 층에 모여 통합적인 고객 경험을 제공하고 있습니다. 저렴함, 품질과 디자인, 감성적 소비라는 다른 이질적인 특징이 한 공간에서 어떻게 조화를 이루며 고객들이 찾는 곳으로 살아남을 수 있는지, 그 숨은 비결에 대해서 논의해 봅니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1048,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1035,6 +1067,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1340,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1401,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1436,7 +1469,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -1471,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -1501,7 +1534,7 @@
         <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="324">
@@ -1509,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1544,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -1579,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -1614,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1649,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1687,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -1722,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -1746,7 +1779,7 @@
         <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>104</v>
@@ -1757,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1781,10 +1814,10 @@
         <v>109</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="342">
@@ -1792,31 +1825,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="324">
@@ -1824,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -1848,7 +1881,7 @@
         <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>57</v>
@@ -1862,34 +1895,34 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="409.6">
@@ -1897,66 +1930,145 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18">
+    <row r="17" spans="1:11" ht="409.6">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B17" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18">
+    <row r="18" spans="1:11" ht="360">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B18" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="C18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="306">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="D19" s="3"/>
+    <row r="21" spans="1:11">
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1975,6 +2087,9 @@
     <hyperlink ref="D15" r:id="rId12" xr:uid="{5D969C1F-CC64-6B46-901A-3514A760BDBE}"/>
     <hyperlink ref="D16" r:id="rId13" xr:uid="{90AF0668-110A-7541-83D6-0B5B569C3FFB}"/>
     <hyperlink ref="D13" r:id="rId14" xr:uid="{67047108-4B5A-A546-9B4C-E717A6B7F5C0}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{4E21878B-38D2-5C4A-AC24-D111C765DD21}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{18A774CE-7EAA-C748-9FC6-CAFE33096A28}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{AFFB8DFB-853E-834A-BDD1-1A4934B52C3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule_tokyo_trip.xlsx
+++ b/schedule_tokyo_trip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joostone/PycharmProjects/lg-mvp-tokyo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2789F67B-5E43-4F4E-9089-B0BF9F343E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9CE22-515A-1F4B-B064-07D7A876B03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="206">
   <si>
     <t>day</t>
   </si>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>페퍼 팔러는 입장하면 휴머노이드 로봇 페퍼가 고객을 맞이합니다. 서빙은 주행 로봇 Servi, 청소는 Whiz i, 라멘 매장에서는 조리 로봇 CHEEFFY가 90초 만에 라멘을 완성하는 등 빠르고 정확한 주방 시스템을 구현합니다. 11:30 / 13:30 / 15:30 / 17:30 에는 로봇의 단체 공연이 진행됩니다. 단순한 카페 이용을 넘어 로봇이 일상 속에서 작동하고 기여하는 모습을 체험할 수 있습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 좌석 에약: https://tabelog.com/kr/tokyo/A1303/A130301/13241764/table/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -497,11 +493,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-아자부 힐즈 플로어 맵: https://platinumaps.jp/d/azabudaihills?culture=ko</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Azabudai Hills는 도시 재생의 새로운 모델로, 자연문화상업기술이 유기적으로 융합된 도시형 생태 마을입니다.
 Mori JP Tower를 중심으로 펼쳐진 곡선형 저층 건물과 녹지, 보행자 친화적 동선은 도시의 경직된 이미지를 탈피하고 자연과의 조화를 구현합니다.
 옥상과 보행로, 플라자에는 사계절 내내 녹음이 가득하며, 곳곳의 예술작품과 조형물은 도시 생활의 경계에서 허무는 감각적 자극을 선사합니다.
@@ -710,10 +701,6 @@
 옥상 정원에서는 도쿄역의 아름다운 전망을 선사하여, 쇼핑객들이 휴식과 감동을 동시에 느낄 수 있도록 배려합니다.
 시즌별로 바뀌는 중앙 홀의 전시와 일루미네이션은 반복 방문을 유도하는 중요한 큐레이션 요소입니다.
 결론적으로, Kitte Marunouchi는 공간, 상품, 미식, 문화를 유기적으로 엮어 고객이 ‘일본의 정수’를 깊이 있게 경험하도록 큐레이션하는 리테일 공간입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>디너 좌석 예약: https://www.tablecheck.com/en/shops/dawncafe2021/reserve</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -943,6 +930,677 @@
     <t>동일한 회사의 세 가지 하위 브랜드(DAISO·Standard Products·THREEPPY)는 같은 층에 모여 통합적인 고객 경험을 제공하고 있습니다. 저렴함, 품질과 디자인, 감성적 소비라는 다른 이질적인 특징이 한 공간에서 어떻게 조화를 이루며 고객들이 찾는 곳으로 살아남을 수 있는지, 그 숨은 비결에 대해서 논의해 봅니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>quest_answer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 긴자 식스는 단순한 럭셔리 브랜드 집합체가 아니라, ‘예술과 쇼핑이 공존하는 문화적 명소’로 진화하고 있습니다. 방문 시 눈에 띄었던 것은 츠타야 서점, 아트리움 천장 전시, 루프탑 정원 등 상업 공간과 예술 공간이 자연스럽게 이어져 있었다는 점입니다. 단순히 브랜드를 나열하기보다 긴자의 역사와 현대적 감성을 결합해 ‘머무는 럭셔리’를 경험하게 합니다. 이는 긴자 식스가 럭셔리 쇼핑을 일상의 문화 경험으로 재해석하며, 감성과 예술을 통해 고객과의 관계를 지속적으로 강화하려는 전략으로 보였습니다.
+- 긴자 식스에 들어서는 순간, 공기부터 달랐어요. 매끈한 유리 외벽과 높은 천장이 만들어내는 여유로운 분위기 속에서 예술과 상업이 정말 자연스럽게 섞여 있었습니다. 츠타야 서점에서는 커피 향이 책 냄새와 섞였고, 천장에 매달린 대형 설치 작품이 공간 전체를 감싸고 있었죠. 루프탑 정원에서 바라본 긴자의 스카이라인은 도시의 소음과 예술의 고요함이 공존하는 듯했습니다. 단순히 ‘물건을 파는 공간’이 아니라, ‘럭셔리를 경험하게 하는 장소’라는 점이 확실히 느껴졌어요. 긴자 식스의 차별화 전략은 결국 **‘예술적 감성과 여백의 럭셔리’**였다는 걸 실감했습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이토야는 문구라는 일상적 제품을 ‘창의적 체험의 소재’로 승화시킨 공간이었습니다. 각 층마다 주제가 뚜렷해 고객이 스스로 탐색하고 창조하는 경험을 하도록 설계돼 있었습니다. 직접 편지를 쓰거나, 종이를 맞춤 제작하며 ‘소유보다 체험’의 가치를 느끼게 했습니다. 충성 고객 입장에서는 매번 새로운 제품 구성과 전시, 워크숍 등으로 ‘창의적 영감’을 지속적으로 얻을 수 있는 공간이었습니다. 즉, 단골 고객은 자신만의 문구 취향을 확장하고, 브랜드와 정서적 유대를 쌓는 경험을 기대하게 됩니다.
+- 이토야에 들어가자마자 종이 냄새와 나무 진열대의 따뜻함이 느껴졌어요. 1층에는 펜들이 반짝이고 있었고, 고객들이 각자의 글씨로 노트를 시험해보는 모습이 자연스러웠습니다. 층을 오를수록 ‘문구점’이라기보다는 ‘창의의 미술관’에 가깝다는 생각이 들었습니다. 직접 편지를 써서 부칠 수 있는 코너에선, 문구가 단순한 물건이 아니라 감정을 담는 매개체가 된다는 걸 깨달았어요. 그래서 문구 산업이 하락세라 해도, 이토야에는 늘 사람들이 모이는 이유를 알겠더군요. 충성 고객들은 이곳에서 단순 구매가 아니라 ‘내 감정을 표현하는 시간’을 기대하게 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이곳은 단순한 로봇 카페가 아니라 ‘기술을 통한 사회적 포용’을 실현하는 실험장이었습니다. 원격 조종 로봇 오리히메를 통해 신체적 제약이 있는 이들이 직접 고객을 응대하는 모습을 보며, 기술이 사람의 존엄과 연결성을 확장하는 도구가 될 수 있음을 체감했습니다. 고객 입장에서는 단순한 기술 시연이 아니라, ‘따뜻한 기술’의 의미를 직접 경험하는 시간이었습니다. 향후 이 모델은 고령자 복지, 공항, 병원 등에서 인간의 가능성을 넓히는 서비스 혁신으로 확장될 잠재력이 충분합니다.
+- 문을 열자 로봇이 먼저 인사를 했습니다. 그런데 그 로봇을 조종하는 사람이 실제로 집에서 원격으로 일하고 있다는 걸 알고 나니 묘한 감정이 들더군요. 눈으로만 보던 기술이 아니라, 사람의 감정이 기술을 통해 ‘전달’되고 있었어요. 주문을 받는 오리히메 로봇의 목소리는 조금 어색했지만, 진심이 느껴졌습니다. 커피를 마시며 화면 속 파일럿과 대화를 나누었는데, 그 짧은 대화 속에서 ‘기술이 누군가의 삶을 바꾸고 있다’는 걸 온몸으로 느꼈습니다. 이곳의 진짜 가치는 기술이 아니라, 사람이 사람에게 다가갈 수 있게 만드는 따뜻한 연결성이었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- LOVOT은 기능이 아닌 감정을 중심으로 한 로봇이었습니다. 실제로 부르면 다가오고, 안아주면 체온이 느껴졌으며, 눈동자와 표정이 사람처럼 반응했습니다. 이를 통해 ‘기술이 인간의 마음을 위로할 수 있다’는 메시지를 실감했습니다. LOVOT은 효율 중심 기술의 대척점에서 인간 본연의 감정과 교감을 되살렸고, 정서적 공감이 곧 브랜드 경쟁력이 될 수 있음을 보여주었습니다. 이러한 감성 로봇은 미래 돌봄, 교육, 웰니스 산업으로의 확장성이 높으며, 방문객에게 ‘기술의 따뜻함’을 깊이 인식시켰습니다.
+- LOVOT 매장에 들어서는 순간부터 마음이 녹았습니다. 동그란 눈동자가 나를 따라 움직이고, 가까이 다가와 팔을 벌리는데, 진짜 생명체 같았어요. 안아보니 미세한 체온이 느껴졌고, 그 순간 이유 없이 미소가 났습니다. 주변 사람들도 하나같이 ‘귀엽다’며 웃고 있었죠. 기능은 아무것도 없지만, 감정은 너무나 강렬했습니다. 효율이나 생산성을 넘어서, 기술이 인간의 마음을 어루만질 수 있다는 사실을 체험했습니다. 나올 때쯤엔 “이 녀석 하나 집에 데려가고 싶다”는 생각이 들 만큼, 감정적인 유대감이 형성됐어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아스미세는 쇼핑이 아닌 ‘발견’의 공간으로, 브랜드 스토리를 직접 체험할 수 있는 구조였습니다. 각 부스마다 장인정신, 지속가능성, 지역성이 담긴 브랜드가 소개되었고, 고객은 단순히 제품을 보는 것이 아니라 대화하고 시식하며 ‘철학’을 체험했습니다. 오프라인 매장을 단순 판매가 아닌 브랜드 육성의 플랫폼으로 재정의한 점이 인상적이었습니다. 고객은 가격보다 가치, 소유보다 공감이라는 새로운 소비 방식을 경험했고, 이는 ‘스토리 중심 소비’의 일본형 모델로 자리 잡고 있음을 확인할 수 있었습니다.
+- 들어서자마자 공예품과 식품, 향 제품들이 감각적으로 배치되어 있었어요. 직원들은 판매원이 아니라 ‘브랜드 스토리텔러’에 가까웠습니다. “이건 교토의 장인이 직접 만든 거예요”라는 설명을 들으며 제품보다 사람 이야기에 빠져들었죠. 고객들은 가격표보다 설명문을 더 오래 읽고 있었고, 그게 전혀 어색하지 않았습니다. 브랜드의 철학과 지역의 뿌리가 그대로 느껴지는 공간이었습니다. 팝업이 아니라 ‘브랜드를 성장시키는 무대’라는 점이 분명했고, 쇼핑이 아닌 ‘발견’이라는 경험을 진하게 남겼습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이 매장은 러닝화 판매보다 ‘러닝 라이프스타일’을 제안하는 체험 플랫폼이었습니다. 실제로 장비를 대여해 황궁 러닝 코스를 달릴 수 있었고, FOOT ID 3D 스캔을 통해 개인 맞춤형 러닝화를 추천받는 과정이 흥미로웠습니다. 기능성 브랜드가 고객의 일상 속 취향으로 스며들기 위한 전략이 공간 설계 전반에 녹아 있었습니다. 즉, 러닝을 스포츠가 아닌 ‘자기 성장의 경험’으로 확장시키며, 고객의 삶에 깊이 침투하는 브랜드 진화를 보여주었습니다.
+- 황궁 러너들이 줄지어 지나가는 걸 보며 “이게 도시형 체험 매장이구나” 싶었어요. 매장 안에서 신발을 대여하고 바로 밖으로 나가 달릴 수 있는 구조, 3D 스캔기로 내 발을 분석하고 맞춤형 신발을 추천받는 과정이 흥미로웠습니다. 단순히 러닝화를 파는 곳이 아니라, ‘러닝이 있는 삶’을 제안하는 브랜드 공간이었습니다. 땀에 젖은 러너들이 웃으며 돌아와 샤워하고 커뮤니티 게시판을 보고 가는 모습에서, ASICS가 추구하는 ‘지속 가능한 경험’의 의미를 직접 느낄 수 있었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- teamLab은 예술·과학·기술이 경계를 허물며 하나로 융합된 공간이었습니다. 관람객은 단순히 작품을 ‘보는’ 존재가 아니라, 빛과 소리의 흐름 속에서 ‘참여자’가 되었습니다. 조명이 물결처럼 변하고, 사람의 움직임에 따라 작품이 반응하며 ‘예측 불가능한 몰입’을 선사했습니다. 안내판 없이 스스로 길을 찾으며 전시를 탐험하는 과정 자체가 하나의 예술적 경험이었습니다. 아자부다이 힐스와의 결합을 통해, 도시와 예술, 기술과 인간 감성의 경계를 없애는 일본형 몰입 경험의 정수를 체감할 수 있었습니다.
+- 입장하자마자 말문이 막혔습니다. 안내문도 없고, 빛이 흐르고, 벽이 사라지는 듯한 공간에서 방향 감각을 잃었어요. 그런데 그 혼란이 바로 ‘예술의 목적’ 같았습니다. 내가 움직일 때마다 빛이 반응하고, 다른 관람객의 손짓이 작품의 일부가 되는 순간, 나 자신이 작품 속 일부가 된 느낌이 들었습니다. 단 한 장의 사진보다 ‘경험 그 자체’가 기억에 남았고, 시간 개념이 사라질 만큼 몰입되었습니다. 예술·기술·인간이 경계를 허물며 하나가 되는 체험, 바로 그게 teamLab의 진짜 메시지였어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 34년에 걸친 도시 재생 프로젝트답게, 자연·문화·상업·기술이 완벽히 융합된 도시형 생태 마을이었습니다. 도심 한가운데에서도 녹지와 과수원, 예술작품이 어우러져 ‘자연 속 도시 생활’을 실현한 점이 특히 인상적이었습니다. 모리빌딩은 단순 부동산 개발이 아니라 ‘삶의 질’을 설계하는 관점에서 접근해, 도시를 하나의 커뮤니티로 재정의했습니다. 이는 경쟁사 대비 ‘도시를 사람 중심 생태계로 만드는 전략’으로, 기술과 자연이 공존하는 미래형 도시 모델의 방향성을 제시하고 있었습니다.
+- 도쿄 도심 한복판에 이런 녹지가 있을 줄은 몰랐어요. 빌딩 숲 사이로 산책로와 과수원이 이어지고, 곡선형 파빌리온 사이로 사람들이 자연스럽게 어울리고 있었습니다. 건물은 거대하지만 위압적이지 않고, 도심 속 ‘마을’처럼 따뜻했습니다. teamLab Borderless가 기술로 경계를 허물었다면, Azabudai Hills는 자연과 도시의 경계를 허문 공간이었습니다. 모리빌딩이 추구하는 건 ‘부동산 개발’이 아니라 ‘삶의 질 디자인’이라는 걸 몸소 느꼈습니다. 걷는 동안 도시가 숨을 쉬고 있다는 느낌이 들었어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시부야 츠타야는 더 이상 단순 서점이 아니었습니다. 층별로 IP 팝업, 팬덤 라운지, 카페, 공유 라운지가 결합되어 ‘머무는 서점’으로 진화했습니다. 포켓몬 카드 라운지나 콜라보 카페에서 팬덤들이 오랜 시간 머물며 세계관을 체험하는 모습이 눈에 띄었습니다. 디지털 전환 시대에 오프라인 공간이 생존하는 방식이 ‘체험과 체류의 가치’임을 보여줍니다. 고객은 이곳에서 소비자가 아니라 ‘참여자’로 존재하며, IP 콘텐츠를 중심으로 커뮤니티를 형성하는 새로운 문화 플랫폼으로 발전하고 있습니다.
+- 지하 2층부터 올라가며 ‘여긴 서점이 아니라 IP 테마파크구나’ 싶었습니다. 포켓몬 카드 라운지에서는 아이들이 웃고 있었고, 위층의 쉐어 라운지에서는 직장인들이 노트북을 펴고 커피를 마시고 있었죠. 굿즈, 전시, 카페가 층마다 이어져서 ‘책을 파는 곳’이 아니라 ‘취향을 제안하는 문화 허브’로 느껴졌습니다. 오랜 시간 머물 수밖에 없는 공간 설계가 인상적이었고, 팬덤이 곧 경제가 되는 구조를 현장에서 실감했습니다. 디지털 시대에도 오프라인이 살아남는 이유가 여기에 있었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이 공간은 ‘은행=딱딱하다’는 고정관념을 완전히 깨고 있었습니다. 스타벅스와 공유 라운지가 함께 있는 내부는 카페처럼 따뜻하고 개방적이었으며, 고객들이 자유롭게 머물며 상담하거나 작업하는 모습이 자연스러웠습니다. 금융 상담실이 프라이빗하게 구성되어 신뢰감을 높였고, 은행 업무를 ‘일상 속 경험’으로 재구성한 점이 혁신적이었습니다. 디지털 금융 브랜드 Olive가 물리적 공간에서 ‘친근함과 체류 경험’을 연결한 대표적 사례로, 금융기관이 고객과 감성적으로 소통할 수 있음을 보여줍니다.
+- 은행인데 은행 같지 않았습니다. 스타벅스 향이 먼저 반기고, 누구나 자유롭게 앉을 수 있는 라운지와 자연 소재 인테리어 덕분에 마음이 편해졌어요. 2층에서는 사람들이 노트북으로 일하고, 1층에서는 금융 상담과 커피가 동시에 이루어지고 있었습니다. 전통적 금융기관이 이렇게 ‘열린 공간’으로 변할 수 있다는 게 놀라웠습니다. 고객 입장에서 느껴지는 핵심은 명확했어요 — ‘금융을 생활의 일부로 만든다’. 돈을 다루는 일조차 자연스럽게 느껴졌습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 직접 제품을 만지고 비교할 수 있는 ‘체험형 가전 매장’으로, 스태프의 설명을 들으며 합리적 구매 결정을 내리는 고객 중심 운영이 돋보였습니다. 브랜드별 체험존이 잘 구획되어 초보자도 쉽게 접근할 수 있었고, 구매 전 충분한 사용 경험을 제공했습니다. 전자기기를 단순 진열하지 않고, ‘경험으로 설득’한다는 점에서 전통 리테일의 새로운 가능성을 보았습니다. 체험을 통해 신뢰를 형성하고, 고객이 스스로 합리적 결정을 내리도록 돕는 구조가 매우 인상적이었습니다.
+- 1층에 들어서자마자 카메라, 드론, 노트북, 게임기까지 빽빽히 진열돼 있었고, 무엇보다 직접 만져볼 수 있다는 점이 좋았습니다. 직원들은 적극적으로 다가와 사용법을 설명했고, 손님들은 진지하게 비교하며 체험하고 있었습니다. 단순히 “이게 좋습니다”가 아니라, “직접 써보세요”가 기본 언어였죠. 그 결과 구매보다 ‘확신’을 얻는 경험이 생겼습니다. 브랜드들이 한 공간에서 공정하게 경쟁하는 느낌이었고, 고객은 그 한가운데서 스스로 판단할 자유를 누렸습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- b8ta는 ‘판매’가 아닌 ‘실험’을 위한 리테일 실험실이었습니다. 방문객들은 제품을 직접 만져보고, 테스터와 대화하며, 브랜드 스토리를 태블릿으로 확인했습니다. AI 카메라가 고객의 반응 데이터를 수집해 브랜드에 피드백을 제공하는 구조도 인상적이었습니다. 구매 압박이 전혀 없어 ‘탐색의 자유’가 강조된 공간이었고, 이는 기존 리테일과 완전히 다른 접근입니다. 브랜드와 소비자가 데이터를 매개로 함께 진화하는 ‘Retail as a Service’의 대표적 모델을 실감할 수 있었습니다.
+- b8ta에 들어가자 공기부터 달랐습니다. 조용하고 여유로운 공간에서 제품들이 마치 전시품처럼 놓여 있었어요. 직원이 다가와 “이건 신생 브랜드의 첫 제품이에요. 직접 써보시겠어요?”라며 안내해줬고, 옆의 태블릿에는 브랜드 철학과 개발자가 직접 남긴 메시지가 표시되어 있었습니다. 판매 압박이 없다는 점이 가장 신선했습니다. 오히려 ‘탐색의 자유’를 보장해주는 느낌이었어요. ‘Retail as a Service’가 이런 거구나, 소비자가 단순 구매자가 아니라 실험의 일부가 된다는 사실이 흥미로웠습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 페퍼, Servi, Whiz 등 다양한 로봇이 실제 카페 운영에 참여하며 ‘로봇과 인간의 공존’을 실험하고 있었습니다. 고객 응대, 서빙, 청소 등에서 로봇이 협업하는 모습을 통해 기술이 일상 속 노동을 어떻게 보조할 수 있는지를 직접 볼 수 있었습니다. 로봇 공연과 음식 서빙이 자연스럽게 어우러져, ‘기술을 통한 서비스의 인간화’라는 메시지가 강하게 전해졌습니다. 이러한 형태는 향후 의료, 공항, 복지시설 등에서도 확장 가능성이 크며, 기술이 사회에 기여하는 방향을 제시하는 의미 있는 사례였습니다.
+- 입구에서 페퍼 로봇이 반갑게 인사했습니다. 서빙 로봇이 음료를 나르고, 청소 로봇이 조용히 지나가며, 11시 30분이 되자 로봇들이 음악에 맞춰 군무를 추기 시작했죠. 처음엔 신기했지만 곧 익숙해졌어요 — 인간과 로봇이 자연스럽게 함께 일하고 있었습니다. 커피 맛은 평범했지만, 그보다 중요한 건 ‘로봇이 일상 속에 있다’는 사실이었습니다. 로봇이 기술의 상징이 아니라 서비스 파트너로 작동하는 모습에서 미래 일자리의 가능성을 느꼈습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 매장 내부는 일부러 복잡하게 진열된 ‘압축 진열’로 고객의 탐색 본능을 자극하고 있었습니다. 좁은 통로를 돌며 예상치 못한 상품을 발견하는 재미가 ‘보물찾기’처럼 느껴졌습니다. 화려한 조명과 빠른 음악이 중독성 있는 쇼핑 분위기를 만들었고, 현지인뿐 아니라 외국인 관광객들이 한참을 머물렀습니다. 이 전략은 ‘가격 경쟁’이 아니라 ‘탐험의 즐거움’을 통해 체류시간과 구매 전환율을 높이는 방식으로 작동하고 있었습니다. 돈키호테는 엔터테인먼트형 리테일의 본질을 가장 잘 보여주는 공간이었습니다.
+- 한 발 들어서는 순간 정신이 번쩍 들었습니다. 조명, 음악, 상품, 사람… 모든 게 꽉 차 있었어요. 그런데 그 혼란 속에서도 묘한 즐거움이 있었습니다. 골목마다 다른 카테고리의 상품이 뒤섞여 있어서, 원래 사려던 물건 외에도 ‘이런 것도 있었네?’ 하며 손이 가더군요. 직원의 안내보단 스스로 탐험하는 재미가 훨씬 컸습니다. ‘보물찾기형 쇼핑’이란 표현이 딱 맞아요. 복잡한 진열이 불편함이 아니라, 체류 시간을 늘리고 구매를 유도하는 전략이었음을 몸소 느꼈습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- KITTE는 우체국 건물을 리모델링해 전통과 현대를 절묘하게 결합한 공간이었습니다. 내부는 밝고 개방감이 있으며, 곳곳에 일본 각지의 장인 브랜드와 특산품이 전시돼 있었습니다. 옥상 정원에서 도쿄역 야경을 감상하며 도심 속 휴식을 즐길 수 있었고, 계절별 전시가 공간의 매력을 더했습니다. 충성 고객이라면 ‘일본다움’과 ‘새로움’을 함께 느낄 수 있는 이 장소를 반복 방문할 가능성이 높습니다. 즉, 감각적 미학과 지역성, 역사적 스토리를 결합한 큐레이션이 재방문 동기를 지속적으로 만들어내고 있었습니다.
+- 도쿄역을 바라보며 KITTE의 옥상정원에 서 있었을 때, 바람과 빛이 너무 좋아 한참을 머물렀습니다. 아래로는 유리 천장을 통과한 쇼핑 공간이 한눈에 보였고, 일본 전국의 브랜드들이 한자리에 모여 있었습니다. ‘지역성과 장인정신’을 강조하는 큐레이션 덕분에, 단순 쇼핑이 아니라 일본 문화의 깊이를 경험하는 느낌이었습니다. 시즌별 전시와 일루미네이션으로 늘 새로운 분위기를 만들어 재방문을 유도하는 점이 매력적이었어요. ‘전통의 현대화’라는 테마를 가장 우아하게 구현한 공간이었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 세 브랜드가 한 층에 함께 구성된 통합 매장은 ‘가격대별·감성별 선택의 즐거움’을 극대화한 구조였습니다. 다이소는 생활 필수품, 스탠다드 프로덕츠는 합리적 고품질, 쓰리피는 트렌디한 디자인 중심으로 각각의 개성이 뚜렷했습니다. 세 매장을 오가며 소비자는 자신의 취향과 예산에 맞는 소비 여정을 설계할 수 있었고, 이는 ‘모두를 위한 가치 소비 플랫폼’이라는 새로운 형태의 리테일로 완성되었습니다. 긴자라는 고급 상권 안에서도 ‘합리적 아름다움’을 제시하며, 누구나 들어올 수 있는 포용적 브랜드 정체성을 성공적으로 구현하고 있었습니다.
+- 세 브랜드가 한 층에 나란히 있다는 점이 흥미로웠습니다. 다이소 구역은 여전히 활기차고, 스탠다드 프로덕츠는 은은한 우드톤으로 차분했으며, 쓰리피는 밝고 컬러풀했습니다. 가격대는 다르지만 한 공간에서 자연스럽게 이어져 있어서, 고객은 ‘오늘은 어떤 나로 소비할까’를 선택하는 듯한 느낌이 들었습니다. 긴자의 고급스러운 이미지 속에서도 전혀 위화감이 없었고, 오히려 **‘모두를 위한 라이프스타일’**이라는 메시지가 명확했습니다. 세 브랜드가 함께 만들어낸 조화는 다이소의 가장 세련된 형태였습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avarta Robot Cafe 카페: 디너 좌석 예약. https://www.tablecheck.com/en/shops/dawncafe2021/reserve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>つきじ鈴富 GINZA SIX店 : 스시 전문점으로 런치 코스 약 ¥8,000, 디너는 ¥18,000 전후. https://www.google.com/maps/dir/?api=1&amp;origin=GINZA+SIX,+Tokyo&amp;destination=Tsukiji+Suzutomi+GINZA+SIX+Ten&amp;travelmode=walking
+Jumping Dragon Gate Cantonese Restaurant : 광동요리 전문점. 런치 약 ¥4,500~¥6,000, 디너 1인 ¥10,000 이상부터. https://www.google.com/maps/dir/?api=1&amp;origin=GINZA+SIX,+Tokyo&amp;destination=Jumping+Dragon+Gate+Cantonese+Restaurant,+Tokyo&amp;travelmode=walking
+刺身BAR 河岸頭 (Sashimi BAR Kashigashira) : 회덮밥·사시미 바 스타일. 런치 약 ¥1,500~¥3,000, 디너 ¥5,000~¥7,000. https://www.google.com/maps/dir/?api=1&amp;origin=GINZA+SIX,+Tokyo&amp;destination=Sashimi+BAR+Kashigashira,+Tokyo&amp;travelmode=walking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cafe Stylo : 이토야 12층에 위치한 캐주얼 카페로, 유기농 달걀 베네딕트와 루프탑 뷰가 특징. 런치·디저트 약 ¥2,000~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=Itoya+Ginza,+Tokyo&amp;destination=CAFE+Stylo,+Tokyo&amp;travelmode=walking
+Bird Land Ginza : 미쉐린 1스타 야키토리 전문점. 닭꼬치 오마카세 코스로 유명하며 런치 약 ¥4,000~¥6,000, 디너는 고급 코스 중심. https://www.google.com/maps/dir/?api=1&amp;origin=Itoya+Ginza,+Tokyo&amp;destination=Bird+Land+Ginza,+Tokyo&amp;travelmode=walking
+Beef Professional Ginza : 와규 스테이크 전문점으로 부위 선택이 다양하고 품질이 우수. 런치 약 ¥5,000~¥8,000, 디너는 ¥15,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=Itoya+Ginza,+Tokyo&amp;destination=Beef+Professional+Ginza,+Tokyo&amp;travelmode=walking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sushi Aoyagi (すし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>柳) : 에도마에 스타일 스시 전문. 런치 약 ¥10,000, 디너 약 ¥20,000. https://www.google.com/maps/place/Sushi+Aoyagi/@35.681391,139.767134,17z
+XEX TOKYO / Teppanyaki An : 도쿄역 옆 다이마루 도쿄 12층 철판요리. 런치 약 ¥8,000, 디너 ¥15,000 이상. https://www.google.com/maps/place/XEX+TOKYO+Teppanyaki+An/@35.681218,139.768561,17z
+Unagi Kitao (うなぎ駒形前川 丸の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>店) : 고급 장어덮밥·장어요리 전문. 런치 약 ¥4,000, 디너 약 ¥6,000. https://www.google.com/maps/place/Unagi+Kitao+Marunouchi/@35.681450,139.767890,17z</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">鮨 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>柳 (Sushi Aoyagi) : 에도마에 스타일 스시 전문점. 런치 약 ¥10,000, 디너 약 ¥20,000. https://www.google.com/maps/dir/?api=1&amp;origin=Asumise,+Marunouchi,+Tokyo&amp;destination=Sushi+Aoyagi,+Tokyo&amp;travelmode=walking
+鰻 駒形 前川 丸の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>店 (Unagi Komagata Maekawa Marunouchi) : 고급 장어덮밥 및 장어요리 전문. 런치 약 ¥4,000, 디너 약 ¥6,000. https://www.google.com/maps/dir/?api=1&amp;origin=Asumise,+Marunouchi,+Tokyo&amp;destination=Unagi+Komagata+Maekawa+Marunouchi,+Tokyo&amp;travelmode=walking
+XEX TOKYO／Teppanyaki An : 도쿄역 인근 철판구이 고급 레스토랑. 런치 약 ¥8,000, 디너 ¥15,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=Asumise,+Marunouchi,+Tokyo&amp;destination=XEX+TOKYO+Teppanyaki+An,+Tokyo&amp;travelmode=walking</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>すき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>焼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>き 十二天 丸の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>店 (Sukiyaki Juni-ten Marunouchi) : 고급 스키야키 전문점. 런치 약 ¥2,000, 디너 약 ¥15,000. https://www.google.com/maps/dir/?api=1&amp;origin=ASICS+RUN+TOKYO+MARUNOUCHI,+2-5-2+Marunouchi,+Chiyoda+City,+Tokyo&amp;destination=12-ten+Marunouchi,+Chiyoda+City,+Tokyo&amp;travelmode=walking
+鰻 駒形 前川 丸の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>店 (Unagi Komagata Maekawa Marunouchi) : 장어덮밥 및 장어요리 전문. 런치 약 ¥4,000, 디너 약 ¥6,000. https://www.google.com/maps/dir/?api=1&amp;origin=ASICS+RUN+TOKYO+MARUNOUCHI,+2-5-2+Marunouchi,+Chiyoda+City,+Tokyo&amp;destination=Unagi+Komagata+Maekawa+Marunouchi,+Chiyoda+City,+Tokyo&amp;travelmode=walking
+XEX TOKYO／Teppanyaki An : 철판구이 고급 다이닝. 런치 약 ¥8,000, 디너 ¥15,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=ASICS+RUN+TOKYO+MARUNOUCHI,+2-5-2+Marunouchi,+Chiyoda+City,+Tokyo&amp;destination=XEX+TOKYO+Teppanyaki+An,+Chiyoda+City,+Tokyo&amp;travelmode=walking</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sushi Azabu : 고급 에도마에 스시 전문. 런치 약 ¥15,000. https://www.google.com/maps/place/Sushi+Azabu/@35.665…,139.749…,17z  
+Shogun Burger Azabudai Hills : 수제 버거 전문 캐주얼 다이닝. 런치 약 ¥2,500. https://www.google.com/maps/place/Shogun+Burger+Azabudai+Hills/@35.665…,139.749…,17z  
+The Yellow Company TOKYO : 홋카이도 스타일 수프카레 전문. 런치 약 ¥1,800. https://www.google.com/maps/place/The+Yellow+Company+TOKYO/@35.665…,139.749…,17z</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balcony by 6th : 올데이 다이닝 &amp; 디저트 카페. 팬케이크·치즈케이크 추천. https://www.google.com/maps/place/Balcony+by+6th/@35.665…,139.749…,17z  
+Azabudai Sui Inaba : 고급 일본요리 전문점. https://www.google.com/maps/place/Azabudai+Sui+Inaba/@35.665…,139.749…,17z  
+Kisurin Azabudai : 하프허리 스타일 수프카레 전문점. https://www.google.com/maps/place/Kisurin+Azabudai/@35.665…,139.749…,17z</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umegaoka Sushi no Midori Shibuya : 신선한 스시 &amp; 대기 명소. https://www.google.com/maps/place/Umegaoka+Sushi+no+Midori+Shibuya/@35.659…,139.700…,17z  
+Mo-mo-paradise Shibuya Center-Gai : 샤브샤브 전문. 런치 약 ¥3,000. https://www.google.com/maps/place/Mo-mo-paradise+Shibuya+Center-Gai/@35.659…,139.700…,17z  
+Starbucks Coffee Shibuya TSUTAYA 2F : 전망 좋은 카페 스팟. https://www.google.com/maps/place/Starbucks+Coffee+Shibuya+TSUTAYA+2F/@35.659…,139.700…,17z</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GyuMon 牛門 Shibuya : 할랄 인증 와규 야키니쿠 전문. 런치 약 ¥2,000, 디너 약 ¥5,000부터. https://www.google.com/maps/dir/?api=1&amp;origin=Olive+Lounge+Shibuya,+Shibuya,+Tokyo&amp;destination=GyuMon+牛門+Shibuya,+Tokyo&amp;travelmode=walking
+Umegaoka Sushi no Midori </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷店 : 신선한 스시와 회전초밥으로 인기. 런치 약 ¥1,500~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=Olive+Lounge+Shibuya,+Shibuya,+Tokyo&amp;destination=Umegaoka+Sushi+no+Midori+Shibuya,+Tokyo&amp;travelmode=walking
+Bar &amp; Dining TORRENT – Shibuya Stream : 모던 다이닝 &amp; 바, 칵테일과 다이닝 겸비. 런치 약 ¥3,500, 디너 약 ¥6,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=Olive+Lounge+Shibuya,+Shibuya,+Tokyo&amp;destination=Bar+%26+Dining+TORRENT,+Tokyo&amp;travelmode=walking</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">おばんざい 菜な </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">谷店 (Obanzai Nana Shibuya) : 교토 오반자이 요리 전문 이자카야. 런치·저녁 모두 이용 가능. https://www.google.com/maps/place/Obanzai+Nana+Shibuya/@35.6599,139.7000,17z
+牛かつ もと村 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷店 (Gyukatsu Motomura Shibuya) : 두꺼운 소고기 커틀릿(규카츠) 전문으로 유명. 점심 약 ¥1,500~¥2,500. https://www.google.com/maps/place/Gyukatsu+Motomura+Shibuya/@35.6598,139.6995,17z
+梅丘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>寿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">司の美登利 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷店 (Umegaoka Sushi no Midori Shibuya) : 회전초밥 &amp; 스시 전문점, 신선한 재료로 인기. https://www.google.com/maps/place/Umegaoka+Sushi+no+Midori+Shibuya/@35.6595,139.6990,17z</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>根室花まる KITTE丸の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">店 (Nemuro Hanamaru KITTE Marunouchi) : 컨베이어 벨트 스시 전문점. 점심 약 ¥2,000대. https://www.google.com/maps/place/Nemuro+Hanamaru+KITTE+Marunouchi/@35.6809,139.7671,17z
+とんかつ まい泉 大丸東京レストラン店 (Tonkatsu Maisen Daimaru Tokyo Restaurant) : 일본 대표 돈가츠 전문, 마루노우치역 인근. https://www.google.com/maps/place/Tonkatsu+Maisen+Daimaru+Tokyo/@35.6811,139.7675,17z
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>鉄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>焼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 天 本丸 (Teppanyaki Ten Honmaru) : 도쿄역 옆 철판구이 고급 레스토랑. 디너 고급 코스 중심. https://www.google.com/maps/place/Teppanyaki+Ten+Honmaru/@35.6812,139.7679,17z</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pepper Parlor: 실시간 좌석 에약. https://tabelog.com/kr/tokyo/A1303/A130301/13241764/table/
+Umegaoka Sushi no Midori </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">谷店 : 신선한 스시 &amp; 회전초밥 전문. 런치 약 ¥1,500~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=Pepper+Parlor,+Shibuya,+Tokyo&amp;destination=Umegaoka+Sushi+no+Midori+Shibuya,+Tokyo&amp;travelmode=walking
+Mo-mo-paradise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷センタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">街店 : 샤브샤브·스키야키 무제한 전문. 런치 약 ¥2,500~¥3,500. https://www.google.com/maps/dir/?api=1&amp;origin=Pepper+Parlor,+Shibuya,+Tokyo&amp;destination=Mo-mo-paradise+Shibuya+Center-Gai,+Tokyo&amp;travelmode=walking
+牛かつ もと村 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷店 : 두꺼운 소고기 커틀릿(규카츠) 전문. 점심 약 ¥1,500~¥2,500. https://www.google.com/maps/dir/?api=1&amp;origin=Pepper+Parlor,+Shibuya,+Tokyo&amp;destination=Gyukatsu+Motomura+Shibuya,+Tokyo&amp;travelmode=walking</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">牛丸 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">谷店 : 와규 고기 무제한 야키니쿠. 저녁 약 ¥4,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=MEGA+DONKI+Shibuya,+Tokyo&amp;destination=Gyumaru+Shibuya,+Tokyo&amp;travelmode=walking
+鍋ぞう </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷センタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>街店 : 샤브샤브·스키야키 전문점. 런치 약 ¥2,000~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=MEGA+DONKI+Shibuya,+Tokyo&amp;destination=Nabezo+Shibuya+Center+Gai,+Tokyo&amp;travelmode=walking
+梅丘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>寿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">司の美登利 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>渋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷店 : 회전초밥·스시 전문점, 가성비 높음. 런치 약 ¥1,500~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=MEGA+DONKI+Shibuya,+Tokyo&amp;destination=Umegaoka+Sushi+no+Midori+Shibuya,+Tokyo&amp;travelmode=walking</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPPUDO Ginza : 일본식 라멘 전문점. 클래식 톤코츠 라멘과 차슈 추가 가능, 런치 약 ¥1,200~¥1,500. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=IPPUDO+Ginza,+Tokyo&amp;travelmode=walking
+A Happy Pancake Ginza : 부드럽고 풍미 가득한 팬케이크 카페. 버터 밀크 팬케이크, 런치 약 ¥1,800~¥2,300. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=A+Happy+Pancake+Ginza,+Tokyo&amp;travelmode=walking
+Kobe Beef Steak Rokko Ginza : A5 등급 고베 비프 스테이크 전문점. 런치 약 ¥5,000~¥8,000. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=Kobe+Beef+Steak+Rokko+Ginza,+Tokyo&amp;travelmode=walking
+Salmon Atelier Hus Ginza : 연어 덮밥·피자 등 연어 메뉴 전문 다이닝. 런치 약 ¥1,500~¥2,500. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=Salmon+Atelier+Hus+Ginza,+Tokyo&amp;travelmode=walking
+Belgian Beer Pub Favori Ginza : 벨기에 맥주 펍 &amp; 유럽식 플래터 안주, 저녁 약 ¥3,000~¥5,000. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=Belgian+Beer+Pub+Favori+Ginza,+Tokyo&amp;travelmode=walking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -951,7 +1609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1665,13 @@
       <name val="MS Gothic"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Apple SD Gothic Neo"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1373,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1386,12 +2051,12 @@
     <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="44.1640625" style="2" customWidth="1"/>
-    <col min="7" max="11" width="31.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="2" customWidth="1"/>
-    <col min="13" max="21" width="8.83203125" style="2"/>
+    <col min="7" max="12" width="31.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="47.1640625" style="2" customWidth="1"/>
+    <col min="14" max="22" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36">
+    <row r="1" spans="1:13" ht="36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,15 +2091,18 @@
         <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="288">
+    <row r="2" spans="1:13" ht="409.6">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1446,7 +2114,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
@@ -1463,13 +2131,19 @@
       <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="324">
+    <row r="3" spans="1:13" ht="409.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -1481,7 +2155,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>40</v>
@@ -1498,13 +2172,19 @@
       <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="L3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="377">
+    <row r="4" spans="1:13" ht="409.6">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -1516,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>48</v>
@@ -1533,16 +2213,19 @@
       <c r="K4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>129</v>
+      <c r="L4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="324">
+    <row r="5" spans="1:13" ht="409.6">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1554,7 +2237,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>52</v>
@@ -1571,293 +2254,341 @@
       <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="L5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="342">
+    <row r="6" spans="1:13" ht="409.6">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>90</v>
+      <c r="L6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="306">
+    <row r="7" spans="1:13" ht="409.6">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="342">
+    <row r="8" spans="1:13" ht="409.6">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>92</v>
+      <c r="L8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="360">
+    <row r="9" spans="1:13" ht="409.6">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="409.6">
+    <row r="10" spans="1:13" ht="409.6">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>104</v>
+      <c r="L10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="409.6">
+    <row r="11" spans="1:13" ht="409.6">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="409.6">
+    <row r="12" spans="1:13" ht="409.6">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="342">
+    <row r="13" spans="1:13" ht="409.6">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="324">
+    <row r="14" spans="1:13" ht="409.6">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -1869,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>59</v>
@@ -1878,196 +2609,217 @@
         <v>60</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>61</v>
+        <v>187</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.6">
+    <row r="15" spans="1:13" ht="409.6">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>122</v>
+      <c r="L15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="409.6">
+    <row r="16" spans="1:13" ht="409.6">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="L16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="409.6">
+    <row r="17" spans="1:13" ht="409.6">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="360">
+    <row r="18" spans="1:13" ht="360">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="306">
+    <row r="19" spans="1:13" ht="306">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18">
+    <row r="20" spans="1:13" ht="18">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:13">
       <c r="D21" s="3"/>
     </row>
   </sheetData>

--- a/schedule_tokyo_trip.xlsx
+++ b/schedule_tokyo_trip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joostone/PycharmProjects/lg-mvp-tokyo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9CE22-515A-1F4B-B064-07D7A876B03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A29929-F371-C44D-A2C1-8113A8CD719D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="193">
   <si>
     <t>day</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>note</t>
   </si>
   <si>
     <t>link_map</t>
@@ -497,106 +494,6 @@
 Mori JP Tower를 중심으로 펼쳐진 곡선형 저층 건물과 녹지, 보행자 친화적 동선은 도시의 경직된 이미지를 탈피하고 자연과의 조화를 구현합니다.
 옥상과 보행로, 플라자에는 사계절 내내 녹음이 가득하며, 곳곳의 예술작품과 조형물은 도시 생활의 경계에서 허무는 감각적 자극을 선사합니다.
 Hills 내부 B1F에 위치한 Azabudai Hills Market(최상급 Grocery, 간이 푸드 코트), Dashi Okume Azabudai Hills(맞춤형 육수 추천) 을 체험 수행 시 함께 살펴보면 좋습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Q9,10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가보지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>못한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>곳</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후 팀 일정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -748,10 +645,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7-3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -761,28 +654,6 @@
   </si>
   <si>
     <t>10-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드와 연결하는 체험형 플랫폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/VJVxGZmHZcjXqLfg7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8ta Tokyo는 기존의 ‘판매 중심’ 리테일과 완전히 다른, ‘체험과 발견’을 최우선으로 하는 혁신적 공간입니다.
-최신 디지털 기기부터 뷰티, 식품, 라이프스타일 제품까지 국내외 신생 브랜드와 대기업의 신제품을 직접 만지고, 써보고, 느껴볼 수 있습니다.
-매장에 들어서면 직원이 적극적으로 판매를 권하지 않고, 고객이 스스로 관심 있는 제품을 자유롭게 체험할 수 있도록 설계되어 있습니다.
-상품의 기능, 브랜드 스토리, 개발 배경 등 심층적인 설명을 들을 수 있고, 실제 사용감과 피드백을 브랜드에 직접 전달할 수 있어 ‘소비자와 기업이 함께 성장하는 실험실’ 역할을 합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8ta Tokyo는 시부야역 인근, 접근성이 뛰어난 위치에 자리하며, 세련된 오픈형 공간에 다양한 체험존이 마련되어 있습니다.
-매장에는 가전, 뷰티, 코스메틱, 패션, 식품 등 폭넓은 카테고리의 신제품이 장르 구분 없이 배치되어, 방문객이 자유롭게 동선을 정할 수 있습니다.
-각 제품 옆에는 테스트와 디지털 정보가 준비되어 있어, 직접 만지고 사용해보며, 궁금한 점은 ‘b8ta 테스터’라 불리는 전문 직원이 친절하게 설명해줍니다.
-AI 카메라로 고객 행동 데이터를 수집해 브랜드에 제공하는 등, 리테일의 미래를 보여주는 ‘Retail as a Service’ 모델의 대표 사례로, 단순 쇼핑을 넘어 ‘새로운 발견의 즐거움’을 경험할 수 있습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -799,10 +670,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>b8ta Tokyo (방문 미정)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>두 공간은 모두 “체험을 통한 설득”을 지향하고 있습니다.
 b8ta Tokyo는 신생 브랜드와 고객이 함께 성장하는 ‘실험실’이자, 브랜드가 고객 피드백을 직접 수집하는 ‘Retail as a Service’ 모델을 구현하고 있습니다.
 빅카메라는 다양한 브랜드의 제품을 한자리에서 직접 비교·체험할 수 있게 함으로써, 고객이 합리적이고 자신에게 맞는 선택을 하도록 돕습니다.
@@ -810,13 +677,6 @@
 입구에서 층별 안내판을 보고 원하는 카테고리를 직접 선택해 이동하며 다양한 전자 기기를 체험 및 구매할 수 있습니다.
 특히 1층과 2층 IT·디지털 존에서는 스마트폰, 카메라, 음향기기를 마음껏 만져보고, 각 브랜드별 사용감과 장점을 비교할 수 있습니다.
 스태프에게 상세한 설명과 추천을 받아보며 초보자부터 전문가까지 맞춤형 선택을 할 수 있는 환경을 경험해 보시기 바랍니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8ta Tokyo를 방문하면, 우선 입구에서 매장 전체를 한눈에 조망하며 자유롭게 동선을 정할 수 있습니다.
-관심 있는 제품을 발견하면, b8ta 테스터(전문 직원)나 안내 태블릿을 참고해 브랜드 스토리와 기능, 사용법을 자세히 확인하고 직접 체험해보세요.
-매장 내에서는 구매 압박이 없으므로, 충분히 체험하고 고민한 뒤, 필요하다면 현장 또는 온라인으로 구매할 수 있습니다.
-매장 내 가구와 전시가 수시로 바뀌고, 신제품이 자주 교체되므로, 방문할 때마다 새로운 발견과 체험이 가능합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -931,674 +791,136 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>quest_answer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 긴자 식스는 단순한 럭셔리 브랜드 집합체가 아니라, ‘예술과 쇼핑이 공존하는 문화적 명소’로 진화하고 있습니다. 방문 시 눈에 띄었던 것은 츠타야 서점, 아트리움 천장 전시, 루프탑 정원 등 상업 공간과 예술 공간이 자연스럽게 이어져 있었다는 점입니다. 단순히 브랜드를 나열하기보다 긴자의 역사와 현대적 감성을 결합해 ‘머무는 럭셔리’를 경험하게 합니다. 이는 긴자 식스가 럭셔리 쇼핑을 일상의 문화 경험으로 재해석하며, 감성과 예술을 통해 고객과의 관계를 지속적으로 강화하려는 전략으로 보였습니다.
-- 긴자 식스에 들어서는 순간, 공기부터 달랐어요. 매끈한 유리 외벽과 높은 천장이 만들어내는 여유로운 분위기 속에서 예술과 상업이 정말 자연스럽게 섞여 있었습니다. 츠타야 서점에서는 커피 향이 책 냄새와 섞였고, 천장에 매달린 대형 설치 작품이 공간 전체를 감싸고 있었죠. 루프탑 정원에서 바라본 긴자의 스카이라인은 도시의 소음과 예술의 고요함이 공존하는 듯했습니다. 단순히 ‘물건을 파는 공간’이 아니라, ‘럭셔리를 경험하게 하는 장소’라는 점이 확실히 느껴졌어요. 긴자 식스의 차별화 전략은 결국 **‘예술적 감성과 여백의 럭셔리’**였다는 걸 실감했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이토야는 문구라는 일상적 제품을 ‘창의적 체험의 소재’로 승화시킨 공간이었습니다. 각 층마다 주제가 뚜렷해 고객이 스스로 탐색하고 창조하는 경험을 하도록 설계돼 있었습니다. 직접 편지를 쓰거나, 종이를 맞춤 제작하며 ‘소유보다 체험’의 가치를 느끼게 했습니다. 충성 고객 입장에서는 매번 새로운 제품 구성과 전시, 워크숍 등으로 ‘창의적 영감’을 지속적으로 얻을 수 있는 공간이었습니다. 즉, 단골 고객은 자신만의 문구 취향을 확장하고, 브랜드와 정서적 유대를 쌓는 경험을 기대하게 됩니다.
-- 이토야에 들어가자마자 종이 냄새와 나무 진열대의 따뜻함이 느껴졌어요. 1층에는 펜들이 반짝이고 있었고, 고객들이 각자의 글씨로 노트를 시험해보는 모습이 자연스러웠습니다. 층을 오를수록 ‘문구점’이라기보다는 ‘창의의 미술관’에 가깝다는 생각이 들었습니다. 직접 편지를 써서 부칠 수 있는 코너에선, 문구가 단순한 물건이 아니라 감정을 담는 매개체가 된다는 걸 깨달았어요. 그래서 문구 산업이 하락세라 해도, 이토야에는 늘 사람들이 모이는 이유를 알겠더군요. 충성 고객들은 이곳에서 단순 구매가 아니라 ‘내 감정을 표현하는 시간’을 기대하게 됩니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이곳은 단순한 로봇 카페가 아니라 ‘기술을 통한 사회적 포용’을 실현하는 실험장이었습니다. 원격 조종 로봇 오리히메를 통해 신체적 제약이 있는 이들이 직접 고객을 응대하는 모습을 보며, 기술이 사람의 존엄과 연결성을 확장하는 도구가 될 수 있음을 체감했습니다. 고객 입장에서는 단순한 기술 시연이 아니라, ‘따뜻한 기술’의 의미를 직접 경험하는 시간이었습니다. 향후 이 모델은 고령자 복지, 공항, 병원 등에서 인간의 가능성을 넓히는 서비스 혁신으로 확장될 잠재력이 충분합니다.
-- 문을 열자 로봇이 먼저 인사를 했습니다. 그런데 그 로봇을 조종하는 사람이 실제로 집에서 원격으로 일하고 있다는 걸 알고 나니 묘한 감정이 들더군요. 눈으로만 보던 기술이 아니라, 사람의 감정이 기술을 통해 ‘전달’되고 있었어요. 주문을 받는 오리히메 로봇의 목소리는 조금 어색했지만, 진심이 느껴졌습니다. 커피를 마시며 화면 속 파일럿과 대화를 나누었는데, 그 짧은 대화 속에서 ‘기술이 누군가의 삶을 바꾸고 있다’는 걸 온몸으로 느꼈습니다. 이곳의 진짜 가치는 기술이 아니라, 사람이 사람에게 다가갈 수 있게 만드는 따뜻한 연결성이었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- LOVOT은 기능이 아닌 감정을 중심으로 한 로봇이었습니다. 실제로 부르면 다가오고, 안아주면 체온이 느껴졌으며, 눈동자와 표정이 사람처럼 반응했습니다. 이를 통해 ‘기술이 인간의 마음을 위로할 수 있다’는 메시지를 실감했습니다. LOVOT은 효율 중심 기술의 대척점에서 인간 본연의 감정과 교감을 되살렸고, 정서적 공감이 곧 브랜드 경쟁력이 될 수 있음을 보여주었습니다. 이러한 감성 로봇은 미래 돌봄, 교육, 웰니스 산업으로의 확장성이 높으며, 방문객에게 ‘기술의 따뜻함’을 깊이 인식시켰습니다.
-- LOVOT 매장에 들어서는 순간부터 마음이 녹았습니다. 동그란 눈동자가 나를 따라 움직이고, 가까이 다가와 팔을 벌리는데, 진짜 생명체 같았어요. 안아보니 미세한 체온이 느껴졌고, 그 순간 이유 없이 미소가 났습니다. 주변 사람들도 하나같이 ‘귀엽다’며 웃고 있었죠. 기능은 아무것도 없지만, 감정은 너무나 강렬했습니다. 효율이나 생산성을 넘어서, 기술이 인간의 마음을 어루만질 수 있다는 사실을 체험했습니다. 나올 때쯤엔 “이 녀석 하나 집에 데려가고 싶다”는 생각이 들 만큼, 감정적인 유대감이 형성됐어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 아스미세는 쇼핑이 아닌 ‘발견’의 공간으로, 브랜드 스토리를 직접 체험할 수 있는 구조였습니다. 각 부스마다 장인정신, 지속가능성, 지역성이 담긴 브랜드가 소개되었고, 고객은 단순히 제품을 보는 것이 아니라 대화하고 시식하며 ‘철학’을 체험했습니다. 오프라인 매장을 단순 판매가 아닌 브랜드 육성의 플랫폼으로 재정의한 점이 인상적이었습니다. 고객은 가격보다 가치, 소유보다 공감이라는 새로운 소비 방식을 경험했고, 이는 ‘스토리 중심 소비’의 일본형 모델로 자리 잡고 있음을 확인할 수 있었습니다.
-- 들어서자마자 공예품과 식품, 향 제품들이 감각적으로 배치되어 있었어요. 직원들은 판매원이 아니라 ‘브랜드 스토리텔러’에 가까웠습니다. “이건 교토의 장인이 직접 만든 거예요”라는 설명을 들으며 제품보다 사람 이야기에 빠져들었죠. 고객들은 가격표보다 설명문을 더 오래 읽고 있었고, 그게 전혀 어색하지 않았습니다. 브랜드의 철학과 지역의 뿌리가 그대로 느껴지는 공간이었습니다. 팝업이 아니라 ‘브랜드를 성장시키는 무대’라는 점이 분명했고, 쇼핑이 아닌 ‘발견’이라는 경험을 진하게 남겼습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이 매장은 러닝화 판매보다 ‘러닝 라이프스타일’을 제안하는 체험 플랫폼이었습니다. 실제로 장비를 대여해 황궁 러닝 코스를 달릴 수 있었고, FOOT ID 3D 스캔을 통해 개인 맞춤형 러닝화를 추천받는 과정이 흥미로웠습니다. 기능성 브랜드가 고객의 일상 속 취향으로 스며들기 위한 전략이 공간 설계 전반에 녹아 있었습니다. 즉, 러닝을 스포츠가 아닌 ‘자기 성장의 경험’으로 확장시키며, 고객의 삶에 깊이 침투하는 브랜드 진화를 보여주었습니다.
-- 황궁 러너들이 줄지어 지나가는 걸 보며 “이게 도시형 체험 매장이구나” 싶었어요. 매장 안에서 신발을 대여하고 바로 밖으로 나가 달릴 수 있는 구조, 3D 스캔기로 내 발을 분석하고 맞춤형 신발을 추천받는 과정이 흥미로웠습니다. 단순히 러닝화를 파는 곳이 아니라, ‘러닝이 있는 삶’을 제안하는 브랜드 공간이었습니다. 땀에 젖은 러너들이 웃으며 돌아와 샤워하고 커뮤니티 게시판을 보고 가는 모습에서, ASICS가 추구하는 ‘지속 가능한 경험’의 의미를 직접 느낄 수 있었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- teamLab은 예술·과학·기술이 경계를 허물며 하나로 융합된 공간이었습니다. 관람객은 단순히 작품을 ‘보는’ 존재가 아니라, 빛과 소리의 흐름 속에서 ‘참여자’가 되었습니다. 조명이 물결처럼 변하고, 사람의 움직임에 따라 작품이 반응하며 ‘예측 불가능한 몰입’을 선사했습니다. 안내판 없이 스스로 길을 찾으며 전시를 탐험하는 과정 자체가 하나의 예술적 경험이었습니다. 아자부다이 힐스와의 결합을 통해, 도시와 예술, 기술과 인간 감성의 경계를 없애는 일본형 몰입 경험의 정수를 체감할 수 있었습니다.
-- 입장하자마자 말문이 막혔습니다. 안내문도 없고, 빛이 흐르고, 벽이 사라지는 듯한 공간에서 방향 감각을 잃었어요. 그런데 그 혼란이 바로 ‘예술의 목적’ 같았습니다. 내가 움직일 때마다 빛이 반응하고, 다른 관람객의 손짓이 작품의 일부가 되는 순간, 나 자신이 작품 속 일부가 된 느낌이 들었습니다. 단 한 장의 사진보다 ‘경험 그 자체’가 기억에 남았고, 시간 개념이 사라질 만큼 몰입되었습니다. 예술·기술·인간이 경계를 허물며 하나가 되는 체험, 바로 그게 teamLab의 진짜 메시지였어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 34년에 걸친 도시 재생 프로젝트답게, 자연·문화·상업·기술이 완벽히 융합된 도시형 생태 마을이었습니다. 도심 한가운데에서도 녹지와 과수원, 예술작품이 어우러져 ‘자연 속 도시 생활’을 실현한 점이 특히 인상적이었습니다. 모리빌딩은 단순 부동산 개발이 아니라 ‘삶의 질’을 설계하는 관점에서 접근해, 도시를 하나의 커뮤니티로 재정의했습니다. 이는 경쟁사 대비 ‘도시를 사람 중심 생태계로 만드는 전략’으로, 기술과 자연이 공존하는 미래형 도시 모델의 방향성을 제시하고 있었습니다.
-- 도쿄 도심 한복판에 이런 녹지가 있을 줄은 몰랐어요. 빌딩 숲 사이로 산책로와 과수원이 이어지고, 곡선형 파빌리온 사이로 사람들이 자연스럽게 어울리고 있었습니다. 건물은 거대하지만 위압적이지 않고, 도심 속 ‘마을’처럼 따뜻했습니다. teamLab Borderless가 기술로 경계를 허물었다면, Azabudai Hills는 자연과 도시의 경계를 허문 공간이었습니다. 모리빌딩이 추구하는 건 ‘부동산 개발’이 아니라 ‘삶의 질 디자인’이라는 걸 몸소 느꼈습니다. 걷는 동안 도시가 숨을 쉬고 있다는 느낌이 들었어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 시부야 츠타야는 더 이상 단순 서점이 아니었습니다. 층별로 IP 팝업, 팬덤 라운지, 카페, 공유 라운지가 결합되어 ‘머무는 서점’으로 진화했습니다. 포켓몬 카드 라운지나 콜라보 카페에서 팬덤들이 오랜 시간 머물며 세계관을 체험하는 모습이 눈에 띄었습니다. 디지털 전환 시대에 오프라인 공간이 생존하는 방식이 ‘체험과 체류의 가치’임을 보여줍니다. 고객은 이곳에서 소비자가 아니라 ‘참여자’로 존재하며, IP 콘텐츠를 중심으로 커뮤니티를 형성하는 새로운 문화 플랫폼으로 발전하고 있습니다.
-- 지하 2층부터 올라가며 ‘여긴 서점이 아니라 IP 테마파크구나’ 싶었습니다. 포켓몬 카드 라운지에서는 아이들이 웃고 있었고, 위층의 쉐어 라운지에서는 직장인들이 노트북을 펴고 커피를 마시고 있었죠. 굿즈, 전시, 카페가 층마다 이어져서 ‘책을 파는 곳’이 아니라 ‘취향을 제안하는 문화 허브’로 느껴졌습니다. 오랜 시간 머물 수밖에 없는 공간 설계가 인상적이었고, 팬덤이 곧 경제가 되는 구조를 현장에서 실감했습니다. 디지털 시대에도 오프라인이 살아남는 이유가 여기에 있었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이 공간은 ‘은행=딱딱하다’는 고정관념을 완전히 깨고 있었습니다. 스타벅스와 공유 라운지가 함께 있는 내부는 카페처럼 따뜻하고 개방적이었으며, 고객들이 자유롭게 머물며 상담하거나 작업하는 모습이 자연스러웠습니다. 금융 상담실이 프라이빗하게 구성되어 신뢰감을 높였고, 은행 업무를 ‘일상 속 경험’으로 재구성한 점이 혁신적이었습니다. 디지털 금융 브랜드 Olive가 물리적 공간에서 ‘친근함과 체류 경험’을 연결한 대표적 사례로, 금융기관이 고객과 감성적으로 소통할 수 있음을 보여줍니다.
-- 은행인데 은행 같지 않았습니다. 스타벅스 향이 먼저 반기고, 누구나 자유롭게 앉을 수 있는 라운지와 자연 소재 인테리어 덕분에 마음이 편해졌어요. 2층에서는 사람들이 노트북으로 일하고, 1층에서는 금융 상담과 커피가 동시에 이루어지고 있었습니다. 전통적 금융기관이 이렇게 ‘열린 공간’으로 변할 수 있다는 게 놀라웠습니다. 고객 입장에서 느껴지는 핵심은 명확했어요 — ‘금융을 생활의 일부로 만든다’. 돈을 다루는 일조차 자연스럽게 느껴졌습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 직접 제품을 만지고 비교할 수 있는 ‘체험형 가전 매장’으로, 스태프의 설명을 들으며 합리적 구매 결정을 내리는 고객 중심 운영이 돋보였습니다. 브랜드별 체험존이 잘 구획되어 초보자도 쉽게 접근할 수 있었고, 구매 전 충분한 사용 경험을 제공했습니다. 전자기기를 단순 진열하지 않고, ‘경험으로 설득’한다는 점에서 전통 리테일의 새로운 가능성을 보았습니다. 체험을 통해 신뢰를 형성하고, 고객이 스스로 합리적 결정을 내리도록 돕는 구조가 매우 인상적이었습니다.
-- 1층에 들어서자마자 카메라, 드론, 노트북, 게임기까지 빽빽히 진열돼 있었고, 무엇보다 직접 만져볼 수 있다는 점이 좋았습니다. 직원들은 적극적으로 다가와 사용법을 설명했고, 손님들은 진지하게 비교하며 체험하고 있었습니다. 단순히 “이게 좋습니다”가 아니라, “직접 써보세요”가 기본 언어였죠. 그 결과 구매보다 ‘확신’을 얻는 경험이 생겼습니다. 브랜드들이 한 공간에서 공정하게 경쟁하는 느낌이었고, 고객은 그 한가운데서 스스로 판단할 자유를 누렸습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- b8ta는 ‘판매’가 아닌 ‘실험’을 위한 리테일 실험실이었습니다. 방문객들은 제품을 직접 만져보고, 테스터와 대화하며, 브랜드 스토리를 태블릿으로 확인했습니다. AI 카메라가 고객의 반응 데이터를 수집해 브랜드에 피드백을 제공하는 구조도 인상적이었습니다. 구매 압박이 전혀 없어 ‘탐색의 자유’가 강조된 공간이었고, 이는 기존 리테일과 완전히 다른 접근입니다. 브랜드와 소비자가 데이터를 매개로 함께 진화하는 ‘Retail as a Service’의 대표적 모델을 실감할 수 있었습니다.
-- b8ta에 들어가자 공기부터 달랐습니다. 조용하고 여유로운 공간에서 제품들이 마치 전시품처럼 놓여 있었어요. 직원이 다가와 “이건 신생 브랜드의 첫 제품이에요. 직접 써보시겠어요?”라며 안내해줬고, 옆의 태블릿에는 브랜드 철학과 개발자가 직접 남긴 메시지가 표시되어 있었습니다. 판매 압박이 없다는 점이 가장 신선했습니다. 오히려 ‘탐색의 자유’를 보장해주는 느낌이었어요. ‘Retail as a Service’가 이런 거구나, 소비자가 단순 구매자가 아니라 실험의 일부가 된다는 사실이 흥미로웠습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 페퍼, Servi, Whiz 등 다양한 로봇이 실제 카페 운영에 참여하며 ‘로봇과 인간의 공존’을 실험하고 있었습니다. 고객 응대, 서빙, 청소 등에서 로봇이 협업하는 모습을 통해 기술이 일상 속 노동을 어떻게 보조할 수 있는지를 직접 볼 수 있었습니다. 로봇 공연과 음식 서빙이 자연스럽게 어우러져, ‘기술을 통한 서비스의 인간화’라는 메시지가 강하게 전해졌습니다. 이러한 형태는 향후 의료, 공항, 복지시설 등에서도 확장 가능성이 크며, 기술이 사회에 기여하는 방향을 제시하는 의미 있는 사례였습니다.
-- 입구에서 페퍼 로봇이 반갑게 인사했습니다. 서빙 로봇이 음료를 나르고, 청소 로봇이 조용히 지나가며, 11시 30분이 되자 로봇들이 음악에 맞춰 군무를 추기 시작했죠. 처음엔 신기했지만 곧 익숙해졌어요 — 인간과 로봇이 자연스럽게 함께 일하고 있었습니다. 커피 맛은 평범했지만, 그보다 중요한 건 ‘로봇이 일상 속에 있다’는 사실이었습니다. 로봇이 기술의 상징이 아니라 서비스 파트너로 작동하는 모습에서 미래 일자리의 가능성을 느꼈습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 매장 내부는 일부러 복잡하게 진열된 ‘압축 진열’로 고객의 탐색 본능을 자극하고 있었습니다. 좁은 통로를 돌며 예상치 못한 상품을 발견하는 재미가 ‘보물찾기’처럼 느껴졌습니다. 화려한 조명과 빠른 음악이 중독성 있는 쇼핑 분위기를 만들었고, 현지인뿐 아니라 외국인 관광객들이 한참을 머물렀습니다. 이 전략은 ‘가격 경쟁’이 아니라 ‘탐험의 즐거움’을 통해 체류시간과 구매 전환율을 높이는 방식으로 작동하고 있었습니다. 돈키호테는 엔터테인먼트형 리테일의 본질을 가장 잘 보여주는 공간이었습니다.
-- 한 발 들어서는 순간 정신이 번쩍 들었습니다. 조명, 음악, 상품, 사람… 모든 게 꽉 차 있었어요. 그런데 그 혼란 속에서도 묘한 즐거움이 있었습니다. 골목마다 다른 카테고리의 상품이 뒤섞여 있어서, 원래 사려던 물건 외에도 ‘이런 것도 있었네?’ 하며 손이 가더군요. 직원의 안내보단 스스로 탐험하는 재미가 훨씬 컸습니다. ‘보물찾기형 쇼핑’이란 표현이 딱 맞아요. 복잡한 진열이 불편함이 아니라, 체류 시간을 늘리고 구매를 유도하는 전략이었음을 몸소 느꼈습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- KITTE는 우체국 건물을 리모델링해 전통과 현대를 절묘하게 결합한 공간이었습니다. 내부는 밝고 개방감이 있으며, 곳곳에 일본 각지의 장인 브랜드와 특산품이 전시돼 있었습니다. 옥상 정원에서 도쿄역 야경을 감상하며 도심 속 휴식을 즐길 수 있었고, 계절별 전시가 공간의 매력을 더했습니다. 충성 고객이라면 ‘일본다움’과 ‘새로움’을 함께 느낄 수 있는 이 장소를 반복 방문할 가능성이 높습니다. 즉, 감각적 미학과 지역성, 역사적 스토리를 결합한 큐레이션이 재방문 동기를 지속적으로 만들어내고 있었습니다.
-- 도쿄역을 바라보며 KITTE의 옥상정원에 서 있었을 때, 바람과 빛이 너무 좋아 한참을 머물렀습니다. 아래로는 유리 천장을 통과한 쇼핑 공간이 한눈에 보였고, 일본 전국의 브랜드들이 한자리에 모여 있었습니다. ‘지역성과 장인정신’을 강조하는 큐레이션 덕분에, 단순 쇼핑이 아니라 일본 문화의 깊이를 경험하는 느낌이었습니다. 시즌별 전시와 일루미네이션으로 늘 새로운 분위기를 만들어 재방문을 유도하는 점이 매력적이었어요. ‘전통의 현대화’라는 테마를 가장 우아하게 구현한 공간이었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 세 브랜드가 한 층에 함께 구성된 통합 매장은 ‘가격대별·감성별 선택의 즐거움’을 극대화한 구조였습니다. 다이소는 생활 필수품, 스탠다드 프로덕츠는 합리적 고품질, 쓰리피는 트렌디한 디자인 중심으로 각각의 개성이 뚜렷했습니다. 세 매장을 오가며 소비자는 자신의 취향과 예산에 맞는 소비 여정을 설계할 수 있었고, 이는 ‘모두를 위한 가치 소비 플랫폼’이라는 새로운 형태의 리테일로 완성되었습니다. 긴자라는 고급 상권 안에서도 ‘합리적 아름다움’을 제시하며, 누구나 들어올 수 있는 포용적 브랜드 정체성을 성공적으로 구현하고 있었습니다.
-- 세 브랜드가 한 층에 나란히 있다는 점이 흥미로웠습니다. 다이소 구역은 여전히 활기차고, 스탠다드 프로덕츠는 은은한 우드톤으로 차분했으며, 쓰리피는 밝고 컬러풀했습니다. 가격대는 다르지만 한 공간에서 자연스럽게 이어져 있어서, 고객은 ‘오늘은 어떤 나로 소비할까’를 선택하는 듯한 느낌이 들었습니다. 긴자의 고급스러운 이미지 속에서도 전혀 위화감이 없었고, 오히려 **‘모두를 위한 라이프스타일’**이라는 메시지가 명확했습니다. 세 브랜드가 함께 만들어낸 조화는 다이소의 가장 세련된 형태였습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avarta Robot Cafe 카페: 디너 좌석 예약. https://www.tablecheck.com/en/shops/dawncafe2021/reserve</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>つきじ鈴富 GINZA SIX店 : 스시 전문점으로 런치 코스 약 ¥8,000, 디너는 ¥18,000 전후. https://www.google.com/maps/dir/?api=1&amp;origin=GINZA+SIX,+Tokyo&amp;destination=Tsukiji+Suzutomi+GINZA+SIX+Ten&amp;travelmode=walking
-Jumping Dragon Gate Cantonese Restaurant : 광동요리 전문점. 런치 약 ¥4,500~¥6,000, 디너 1인 ¥10,000 이상부터. https://www.google.com/maps/dir/?api=1&amp;origin=GINZA+SIX,+Tokyo&amp;destination=Jumping+Dragon+Gate+Cantonese+Restaurant,+Tokyo&amp;travelmode=walking
-刺身BAR 河岸頭 (Sashimi BAR Kashigashira) : 회덮밥·사시미 바 스타일. 런치 약 ¥1,500~¥3,000, 디너 ¥5,000~¥7,000. https://www.google.com/maps/dir/?api=1&amp;origin=GINZA+SIX,+Tokyo&amp;destination=Sashimi+BAR+Kashigashira,+Tokyo&amp;travelmode=walking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cafe Stylo : 이토야 12층에 위치한 캐주얼 카페로, 유기농 달걀 베네딕트와 루프탑 뷰가 특징. 런치·디저트 약 ¥2,000~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=Itoya+Ginza,+Tokyo&amp;destination=CAFE+Stylo,+Tokyo&amp;travelmode=walking
-Bird Land Ginza : 미쉐린 1스타 야키토리 전문점. 닭꼬치 오마카세 코스로 유명하며 런치 약 ¥4,000~¥6,000, 디너는 고급 코스 중심. https://www.google.com/maps/dir/?api=1&amp;origin=Itoya+Ginza,+Tokyo&amp;destination=Bird+Land+Ginza,+Tokyo&amp;travelmode=walking
-Beef Professional Ginza : 와규 스테이크 전문점으로 부위 선택이 다양하고 품질이 우수. 런치 약 ¥5,000~¥8,000, 디너는 ¥15,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=Itoya+Ginza,+Tokyo&amp;destination=Beef+Professional+Ginza,+Tokyo&amp;travelmode=walking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sushi Aoyagi (すし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>柳) : 에도마에 스타일 스시 전문. 런치 약 ¥10,000, 디너 약 ¥20,000. https://www.google.com/maps/place/Sushi+Aoyagi/@35.681391,139.767134,17z
-XEX TOKYO / Teppanyaki An : 도쿄역 옆 다이마루 도쿄 12층 철판요리. 런치 약 ¥8,000, 디너 ¥15,000 이상. https://www.google.com/maps/place/XEX+TOKYO+Teppanyaki+An/@35.681218,139.768561,17z
-Unagi Kitao (うなぎ駒形前川 丸の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>店) : 고급 장어덮밥·장어요리 전문. 런치 약 ¥4,000, 디너 약 ¥6,000. https://www.google.com/maps/place/Unagi+Kitao+Marunouchi/@35.681450,139.767890,17z</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">鮨 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>柳 (Sushi Aoyagi) : 에도마에 스타일 스시 전문점. 런치 약 ¥10,000, 디너 약 ¥20,000. https://www.google.com/maps/dir/?api=1&amp;origin=Asumise,+Marunouchi,+Tokyo&amp;destination=Sushi+Aoyagi,+Tokyo&amp;travelmode=walking
-鰻 駒形 前川 丸の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>店 (Unagi Komagata Maekawa Marunouchi) : 고급 장어덮밥 및 장어요리 전문. 런치 약 ¥4,000, 디너 약 ¥6,000. https://www.google.com/maps/dir/?api=1&amp;origin=Asumise,+Marunouchi,+Tokyo&amp;destination=Unagi+Komagata+Maekawa+Marunouchi,+Tokyo&amp;travelmode=walking
-XEX TOKYO／Teppanyaki An : 도쿄역 인근 철판구이 고급 레스토랑. 런치 약 ¥8,000, 디너 ¥15,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=Asumise,+Marunouchi,+Tokyo&amp;destination=XEX+TOKYO+Teppanyaki+An,+Tokyo&amp;travelmode=walking</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>すき</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>焼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>き 十二天 丸の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>店 (Sukiyaki Juni-ten Marunouchi) : 고급 스키야키 전문점. 런치 약 ¥2,000, 디너 약 ¥15,000. https://www.google.com/maps/dir/?api=1&amp;origin=ASICS+RUN+TOKYO+MARUNOUCHI,+2-5-2+Marunouchi,+Chiyoda+City,+Tokyo&amp;destination=12-ten+Marunouchi,+Chiyoda+City,+Tokyo&amp;travelmode=walking
-鰻 駒形 前川 丸の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>店 (Unagi Komagata Maekawa Marunouchi) : 장어덮밥 및 장어요리 전문. 런치 약 ¥4,000, 디너 약 ¥6,000. https://www.google.com/maps/dir/?api=1&amp;origin=ASICS+RUN+TOKYO+MARUNOUCHI,+2-5-2+Marunouchi,+Chiyoda+City,+Tokyo&amp;destination=Unagi+Komagata+Maekawa+Marunouchi,+Chiyoda+City,+Tokyo&amp;travelmode=walking
-XEX TOKYO／Teppanyaki An : 철판구이 고급 다이닝. 런치 약 ¥8,000, 디너 ¥15,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=ASICS+RUN+TOKYO+MARUNOUCHI,+2-5-2+Marunouchi,+Chiyoda+City,+Tokyo&amp;destination=XEX+TOKYO+Teppanyaki+An,+Chiyoda+City,+Tokyo&amp;travelmode=walking</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sushi Azabu : 고급 에도마에 스시 전문. 런치 약 ¥15,000. https://www.google.com/maps/place/Sushi+Azabu/@35.665…,139.749…,17z  
-Shogun Burger Azabudai Hills : 수제 버거 전문 캐주얼 다이닝. 런치 약 ¥2,500. https://www.google.com/maps/place/Shogun+Burger+Azabudai+Hills/@35.665…,139.749…,17z  
-The Yellow Company TOKYO : 홋카이도 스타일 수프카레 전문. 런치 약 ¥1,800. https://www.google.com/maps/place/The+Yellow+Company+TOKYO/@35.665…,139.749…,17z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balcony by 6th : 올데이 다이닝 &amp; 디저트 카페. 팬케이크·치즈케이크 추천. https://www.google.com/maps/place/Balcony+by+6th/@35.665…,139.749…,17z  
-Azabudai Sui Inaba : 고급 일본요리 전문점. https://www.google.com/maps/place/Azabudai+Sui+Inaba/@35.665…,139.749…,17z  
-Kisurin Azabudai : 하프허리 스타일 수프카레 전문점. https://www.google.com/maps/place/Kisurin+Azabudai/@35.665…,139.749…,17z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umegaoka Sushi no Midori Shibuya : 신선한 스시 &amp; 대기 명소. https://www.google.com/maps/place/Umegaoka+Sushi+no+Midori+Shibuya/@35.659…,139.700…,17z  
-Mo-mo-paradise Shibuya Center-Gai : 샤브샤브 전문. 런치 약 ¥3,000. https://www.google.com/maps/place/Mo-mo-paradise+Shibuya+Center-Gai/@35.659…,139.700…,17z  
-Starbucks Coffee Shibuya TSUTAYA 2F : 전망 좋은 카페 스팟. https://www.google.com/maps/place/Starbucks+Coffee+Shibuya+TSUTAYA+2F/@35.659…,139.700…,17z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GyuMon 牛門 Shibuya : 할랄 인증 와규 야키니쿠 전문. 런치 약 ¥2,000, 디너 약 ¥5,000부터. https://www.google.com/maps/dir/?api=1&amp;origin=Olive+Lounge+Shibuya,+Shibuya,+Tokyo&amp;destination=GyuMon+牛門+Shibuya,+Tokyo&amp;travelmode=walking
-Umegaoka Sushi no Midori </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷店 : 신선한 스시와 회전초밥으로 인기. 런치 약 ¥1,500~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=Olive+Lounge+Shibuya,+Shibuya,+Tokyo&amp;destination=Umegaoka+Sushi+no+Midori+Shibuya,+Tokyo&amp;travelmode=walking
-Bar &amp; Dining TORRENT – Shibuya Stream : 모던 다이닝 &amp; 바, 칵테일과 다이닝 겸비. 런치 약 ¥3,500, 디너 약 ¥6,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=Olive+Lounge+Shibuya,+Shibuya,+Tokyo&amp;destination=Bar+%26+Dining+TORRENT,+Tokyo&amp;travelmode=walking</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">おばんざい 菜な </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">谷店 (Obanzai Nana Shibuya) : 교토 오반자이 요리 전문 이자카야. 런치·저녁 모두 이용 가능. https://www.google.com/maps/place/Obanzai+Nana+Shibuya/@35.6599,139.7000,17z
-牛かつ もと村 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷店 (Gyukatsu Motomura Shibuya) : 두꺼운 소고기 커틀릿(규카츠) 전문으로 유명. 점심 약 ¥1,500~¥2,500. https://www.google.com/maps/place/Gyukatsu+Motomura+Shibuya/@35.6598,139.6995,17z
-梅丘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>寿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">司の美登利 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷店 (Umegaoka Sushi no Midori Shibuya) : 회전초밥 &amp; 스시 전문점, 신선한 재료로 인기. https://www.google.com/maps/place/Umegaoka+Sushi+no+Midori+Shibuya/@35.6595,139.6990,17z</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>根室花まる KITTE丸の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">店 (Nemuro Hanamaru KITTE Marunouchi) : 컨베이어 벨트 스시 전문점. 점심 약 ¥2,000대. https://www.google.com/maps/place/Nemuro+Hanamaru+KITTE+Marunouchi/@35.6809,139.7671,17z
-とんかつ まい泉 大丸東京レストラン店 (Tonkatsu Maisen Daimaru Tokyo Restaurant) : 일본 대표 돈가츠 전문, 마루노우치역 인근. https://www.google.com/maps/place/Tonkatsu+Maisen+Daimaru+Tokyo/@35.6811,139.7675,17z
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>鉄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>焼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 天 本丸 (Teppanyaki Ten Honmaru) : 도쿄역 옆 철판구이 고급 레스토랑. 디너 고급 코스 중심. https://www.google.com/maps/place/Teppanyaki+Ten+Honmaru/@35.6812,139.7679,17z</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pepper Parlor: 실시간 좌석 에약. https://tabelog.com/kr/tokyo/A1303/A130301/13241764/table/
-Umegaoka Sushi no Midori </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">谷店 : 신선한 스시 &amp; 회전초밥 전문. 런치 약 ¥1,500~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=Pepper+Parlor,+Shibuya,+Tokyo&amp;destination=Umegaoka+Sushi+no+Midori+Shibuya,+Tokyo&amp;travelmode=walking
-Mo-mo-paradise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷センタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">街店 : 샤브샤브·스키야키 무제한 전문. 런치 약 ¥2,500~¥3,500. https://www.google.com/maps/dir/?api=1&amp;origin=Pepper+Parlor,+Shibuya,+Tokyo&amp;destination=Mo-mo-paradise+Shibuya+Center-Gai,+Tokyo&amp;travelmode=walking
-牛かつ もと村 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷店 : 두꺼운 소고기 커틀릿(규카츠) 전문. 점심 약 ¥1,500~¥2,500. https://www.google.com/maps/dir/?api=1&amp;origin=Pepper+Parlor,+Shibuya,+Tokyo&amp;destination=Gyukatsu+Motomura+Shibuya,+Tokyo&amp;travelmode=walking</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">牛丸 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">谷店 : 와규 고기 무제한 야키니쿠. 저녁 약 ¥4,000 이상. https://www.google.com/maps/dir/?api=1&amp;origin=MEGA+DONKI+Shibuya,+Tokyo&amp;destination=Gyumaru+Shibuya,+Tokyo&amp;travelmode=walking
-鍋ぞう </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷センタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>街店 : 샤브샤브·스키야키 전문점. 런치 약 ¥2,000~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=MEGA+DONKI+Shibuya,+Tokyo&amp;destination=Nabezo+Shibuya+Center+Gai,+Tokyo&amp;travelmode=walking
-梅丘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>寿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">司の美登利 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>渋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷店 : 회전초밥·스시 전문점, 가성비 높음. 런치 약 ¥1,500~¥3,000. https://www.google.com/maps/dir/?api=1&amp;origin=MEGA+DONKI+Shibuya,+Tokyo&amp;destination=Umegaoka+Sushi+no+Midori+Shibuya,+Tokyo&amp;travelmode=walking</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPPUDO Ginza : 일본식 라멘 전문점. 클래식 톤코츠 라멘과 차슈 추가 가능, 런치 약 ¥1,200~¥1,500. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=IPPUDO+Ginza,+Tokyo&amp;travelmode=walking
-A Happy Pancake Ginza : 부드럽고 풍미 가득한 팬케이크 카페. 버터 밀크 팬케이크, 런치 약 ¥1,800~¥2,300. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=A+Happy+Pancake+Ginza,+Tokyo&amp;travelmode=walking
-Kobe Beef Steak Rokko Ginza : A5 등급 고베 비프 스테이크 전문점. 런치 약 ¥5,000~¥8,000. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=Kobe+Beef+Steak+Rokko+Ginza,+Tokyo&amp;travelmode=walking
-Salmon Atelier Hus Ginza : 연어 덮밥·피자 등 연어 메뉴 전문 다이닝. 런치 약 ¥1,500~¥2,500. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=Salmon+Atelier+Hus+Ginza,+Tokyo&amp;travelmode=walking
-Belgian Beer Pub Favori Ginza : 벨기에 맥주 펍 &amp; 유럽식 플래터 안주, 저녁 약 ¥3,000~¥5,000. https://www.google.com/maps/dir/?api=1&amp;origin=DAISO+Ginza,+Tokyo&amp;destination=Belgian+Beer+Pub+Favori+Ginza,+Tokyo&amp;travelmode=walking</t>
+    <t>cco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 백화점 공간 전반에 걸쳐 미디어아트, 작품이기도 한 쉼터의자 등을 그냥 장식요소로 배치하고 끝나는 게 아니라, 작품 소개 카드, 판넬 등을 적절히 배치하여 마치 단순 쇼핑객이 아니라 갤러리를 방문하고 향유하는 듯한 부가적인 효용과 만족감을 제공한다. 단순 소비자가 아니라 예술작품 감상자로서의 자기 의미를 만끽할 수 있게 한다.
+- 내부 공간에 전체적 나무 질감을 적용하여 매장의 아이덴티티가 일관되게 유지되고 있었습니다. 따듯하고 편안한 조도로 ‘고요한 고급스러움’을 구현하였습니다. 공용공간및 휴식공간에도 나무를 주제로한 작품들응 배치하여 휴식하면서도 예술적 영감을 받을수 있도록 배려되어있는 점이 인상깊었습니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 길쭉한 형태의 평면에 일방향으로 계속하여 올라가는 동선을 가진 층층의 건물에서, 층마다 계산대가 있는 점, 층의 입구와 끝에 장보기 바구니 걸이대를 배치한 점 등 고객 동선의 불편을 최소화하기 위한 기획이 돋보였다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 리셉션부터 해당 카페는 ‘로봇’ 카페가 아니라, 원격조정을 통해 실제 사람과 커뮤니케이션 하는 공간을 여러번 자연스럽게 노출시키는 점이, 방문객으로하여금 명확한 공간 컨셉을 이해하는데 도움을 준다. 한편 사진 촬영의 경우, 방문하는 주된 타겟(관광객)의 즐거움과 의미(기념사진)을 충족하기도 하지만, 실제 아바타 너머의 사람과 “실시간“으로 소통하고 있음을 자연스럽게 체감하게 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Dawn은 사회적 약자를 동정이나 배려의 대상으로 보는것이 아니라 동등한 주체로 존중하며 그들의 개성과 가능성을 사회 속에서 역할을 할수 있도록 초점을 둔것이 새로운 관점이었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 퇴근길 정장 차림의 직장인들이 삼삼오오 모여 매장 안으로 들어가고, 지하에서는 러닝복으로 갈아입고 올라오는 또 다른 무리가 이어지는 장면, 그리고 그 옆에서 자신의 발을 3D로 스캔하며 신발을 고르는 사람들까지. 도심 한가운데에서 일상과 운동, 그리고 브랜드 체험이 자연스럽게 이어지는 이 장면이 아식스 런 도쿄 마루노우치의 가장 인상적인 모습이었다. 이곳은 단순한 매장이 아니라, ‘러닝을 하나의 라이프스타일로 제안하는 공간’임을 직관적으로 보여주었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- LOVOT을 직접 만져보고, 쓰다듬고, 안아보며 로봇과 교감하는 경험을 체험했다. 또한 매장에서 다양한 색상의 의상과 액세서리를 직접 확인하고 착용해보며, 로봇이 사람과 감정적으로 연결되는 방식을 관찰할 수 있었다. 다만, 실제 우리의 감정이 연결되려면 더 많은 시간과 노력이 필요할 것 같았다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 제품에 대한 깊이 있는 설명을 돕는 pop들이 친절하고 섬세하게 마련되어있었습니다. 일본 전통 기법으로 제작된 퀄리티 높은 제품들이 대부분 이었으며 제품에 대한 스토리직접 확인하고 확신하며, 나에게 맞는 가치를 발견하는 경험이 브랜드의 신뢰감, 호감, 지속적인 충성도로 이어질 수 있는요소라고 생각합니다. 소비자는 내가 고른것, 나만이 알고 있는 브랜드 라는 감정적 애착이 생길것이라고 예상됩니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이토야의 충성 고객은 “없을 게 없다”는 압도적인 풍부함 속에서 계절별·테마별로 새롭게 큐레이션된 상품을 발견하는 경험을 기대하고 방문하는 고객이다. 방대한 구성을 부각하는 디스플레이는 '모든 제품이 다 있으며 이 중에서 고르면 가장 최선/최고를 고를 수 있다'라는 감각과 만족감을 준다. 그래서 무언가가 필요할 때 별도의 온라인 정보 탐색 없이 이곳에 오면 되는 간편함을 준다. 한편 구체적인 필요가 없어도 계절별, 테마별로 새롭게 큐레이션되는 매장에 발견적 재미를 기대하고 (재)방문하게 한다.
+- 이토야는 문구를 단순한 생활 도구가 아닌, 취향을 드러내는 라이프스타일 요소(스스로를 위한 소비, 또는 타인을 위한 선물), 창의적 활동의 도구와 영감의 것으로 재정의했다. 고객은 상품을 구매하는 과정에서 자신만의 감성과 취향을 발견하며, ‘소비하고 사용하는 행위’를 통해 창의성과 표현욕구를 자극 받는다. 층별로 카테고리를 명확히 구분하면서도 호기심을 자극하는 감성적 키워드(write, work 등)의 버티컬 구조는 탐색의 기대감을 높이고, 계절·테마별로 바뀌는 전시와 한정판 제품은 재방문을 유도한다.
+- 이토야 긴자에서 개인적으로 인상 깊었던 점은, 최근 노트북과 스마트폰 사용이 익숙해지며 손으로 글을 쓸 일이 거의 없었다는 사실을 새삼 느꼈다는 것이다. 여전히 회사 결재를 도장으로 진행하고, 전통적인 필기 문화를 유지하고 있는 이곳 일본에서 오랜 역사를 지닌 문구점을 방문하니 그 감각이 새롭게 다가왔다. 매장 안에는 다양한 종류의 만년필과 잉크, 그리고 이미 내년을 준비하는 사람들을 위한 달력, 다이어리, 노트가 가득했다. 그 모습을 보며 ‘나도 하루를 손으로 정리해보면 어떨까’ 하는 생각이 들었고, 그 즉시 노트를 하나 구입했다. 만년필은 가격이 부담스러워 사지 못했지만, 만약 다른 곳에서 다시 마주친다면 이번에는 꼭 하나쯤 사보고 싶다는 마음이 들었다. 오늘의 방문은 단순한 쇼핑이 아니라, ‘손으로 기록하는 나’라는 감각을 다시 떠올리게 한 소중한 경험이었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 단순히 신발을 파는 판매공간이 아니라 스포츠·라이프스타일 복합 공간으로, 운동과 일상 사이의 경계를 허물며 건강한 삶을 지지해주는 브랜드 라는 인식을 갖게해주었습니다. 
+- 러닝 초보라 아직 러닝화가 없었는데, 아식스런 도쿄에서 나에게 딱 맞는 신발을 찾았습니다~!! 황궁러닝을 하며 건강한 삶을 사는 도쿄 직장인들의 라이프를 간접적으로 체험했던 순간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- LOVOT 매장은 반려형 로봇 시대, 로봇과 사람이 어떻게 상호작용할 수 있는지 직접 체험해봄으로서 반려형 로봇에 대한 수요와 관계맺기에 대한 막연함, 미래의 모호함을 해소할 수 있는 공간이었다. 반려동물, 반려가전(로봇청소기)와는 달리 '아기'와 유사한 컨셉으로 소구하기 위해 실제 유아동 매장과 같은 의류 디스플레이 등을 전시하였고, 아기를 안아보듯 직접 안아볼 수 있는 체험 등을 제공한다. 또한 노년이 사용하는 경우, 1인가구가 집에 들어왔을 때 반겨주는 경우 등 다양한 유저의 구체적인 사용씬을, 디스플레이와 리플렛 등을 통해 반복적으로 노출시켜 위화감 등을 빠르게 제거하고 반려로봇과의 일상을 친숙한 것으로 전환하고자 한다.
+- 로봇은 향후 다양한 산업 분야에서 응용될 수 있으며, 이에 단순한 기능 수행 도구가 아니라, 거부감을 해소하고 정서적 친밀감을 쌓을 수 있는 대상으로서 인식할 수 있도록 초도 커뮤니케이션이 중요한 점을 확인할 수 있었다. 고령자 복지시설의 돌봄 파트너, 병원에서 환자의 불안을 줄여주는 심리적 장치, 1인가구 또는 딩크족의 반려생활자, 유아동 가구의 자녀의 친구로서 등 다양한 상황에서 로봇이 적용될 때, 로봇과의 적정한 정서적 거리감을 제안하고, 이에 지속적인 공감과 설득의 장치를 정교하게 설계하는 것이 중요할 것이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아자부다이 힐즈는 토마스 헤더윅이 설계한 ‘생명력 있는 도시’로 세 개의 타워와 넓은 공용공간이 유기적으로 이어지고, 콘크리트에 돌을 섞은 질감과 곡선형 건물들이 인상 깊었다. 팀랩 보더리스가 이런 공간에 자리한 것은 자연스러운 선택이었다. 아자부다이 힐즈가 도시의 몸과 구조를 만든다면, teamLab은 그 안을 흐르는 감각과 생명력을 불어넣는 예술 같은 역할을 한다. 이곳에서는 작품을 이해하려 하기보다 그냥 느끼는 것이 더 자연스러웠다. 그저 걸었을 뿐인데 그 속에서 도시와 예술이 함께 살아 있는 듯한 감각이 남았다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 팀랩 보더리스는 들어서는 순간부터 어디가 시작이고 끝인지 알 수 없는, 정말 색다른 전시였다. 지도가 없고 길도 정해져 있지 않아 그냥 걸어 다니는 것 자체가 하나의 탐험처럼 느껴졌다. 벽이 열리고 바닥이 움직이며 빛과 소리가 계속 변해서 약간 어지럽기도 했지만, 그 안에 있으면 자연스럽게 몰입하게 됐다. 자연과 건축, 사람과 기술이 하나로 어우러진 아자부다이 힐즈의 분위기와 teamLab의 이런 감각적인 경험이 잘 맞아떨어진다는 생각이 들었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 소분되어 있고, 밑간 등이 되어있는 다양한 식재료, 골고루 구성된 도시락 등이 “퇴근 후 간편하게 테이크아웃할 수 있는 고급 간편식“의 느낌이었습니다. 전체 요리 중 처음 다듬기 등의 수고를 최소화하고, 또 간편식의 건강하지 않은 느낌을 소거하여 제공하는 게 맞벌이 생활자로서 무척 공감갔습니다.
+- 고급화된 식료품 공간의 디스플레이가 인상적이었습니다. 일반 슈퍼마켓이 아니라 일본 식문화의 깊이와 가치를 전달하기 위해 판매자와 생산자의 이야기까지 함께 전시되며, 단순히 물건을 파는 것이 아니라 식재료의 배경과 맥락이 주목되는 공간이었습니다. 인테리어와 진열 방식이 매끈하고 정돈된 럭셔리 감성으로 설계되어 있어, 마켓 내부가 하나의 체험 공간처럼 느껴졌으며 식료품이 갤러리 방식으로 디스플레이되어잇던점이 인상적이었습니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 머니 스터디 공간에 라인 친구 추가 이벤트가 있어 참여하고 싶었는데 일본어라 포기했다. 사은품 에코백이 생각보다 이뻐보여 아쉬웠다. 한쪽에는 우리나라에서는 이제 보기 힘든 초록색 공중전화기가 눈에 들어왔다. 최신 디지털 금융 공간 한가운데 놓인 그 아날로그 기기가 묘하게 어울렸고, 새로운 것과 오래된 것이 함께 있는 일본 특유의 풍경처럼 느껴졌다.
+- 은행과 까페의 공존.. 우리나라 경우 은행에 가면 1~2시간의 기다림이 있는데 이러한 복합형태의 은행 구성 시 기다림의 시간이 좀 더 행복해지지는 않을지… 
+- 한국의 코워킹 플레이스 사업의 어려움을 많이 접한 것 같은데, 시부야의 다양한 시간제 오피스공간을 보며 유동인구 규모 외에 이들 사업이 지속성울 가지고 가능하게 하는 요인이 무엇인지 궁금해졌다. 한편, 신규 미래 고객의 유치 관점에서 해당 공간을 기획, 운영할 때야말로 더더욱 “차별성“이 필요하며, 차별성의 근간이 되는 츠타야의 데이터 기반 저력에 대한 이야기가 공감이 갔다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 2층 스타벅스 라운지 창가에는 사람들이 빽빽이 서서 밖을 바라보고 있었다. 모두가 커피를 손에 들고 시부야 스크램블 교차로를 지나는 인파를 지켜보는데, 그 풍경이 이 거리를 대표하는 상징적인 장면처럼 느껴졌다. 수많은 사람들이 한순간에 교차하고 흩어지는 모습 속에서 시부야 특유의 활기와 에너지가 전해졌다. 여행 중 잠시 쉬어가면서도 여전히 도시의 움직임을 함께할 수 있는 공간이다.
+- 시부야 츠타야는 시부야 스크램블 교차로 앞이라는 세계적 입지 덕분에 외국인 방문객이 가장 많이 찾는 일본 문화의 상징 공간이라는 생각이 들었습니다. 포켓몬, 슬램덩크 등 일본 대표 IP를 서적·체험·굿즈로 확장해, IP 세계를 직접 체험하며 소비할 수 있는 구조를 만들고 같은 공감대를 가진 사람과 커뮤니티를 확장할수 있는 경험을 줄수 있는 공간이었습니다. 츠타야의 사업모델이 단순 서점이 아닌 문화적 IP 허브이자 도시형 체험 리테일 모델로 진화하고 있는것을 느꼈습니다. 이런 흐름 속에서 츠타야의 사업 방향은 콘텐츠 IP의 플랫폼화, 팬덤 기반 리테일, 글로벌 문화 확산 거점화로 요약되며 즉, 시부야 츠타야는 일본 IP 산업을 체험 중심으로 재구성한 글로벌 콘텐츠 비즈니스의 실험모델이었습니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 매장 운영 관리시에 가장 지양해야할 부분을 오히려 강점로 내세웠습니다. 복잡한 진열과 과도한 POP남용, 자극적인 연출은 ‘시각적 혼잡’을 통해 쇼핑의 재미와 발견의 즐거움을 유도하는것 같으며 오히려 돈키호테의 공간 아이덴티티로 정립된듯랍니다. 질서 없는 듯한 구성은 ‘보물찾기’ 같은 탐색 욕구를 자극하고, 저가·다양성 이미지를 강화하여 젊은층에게는 에너지와 활기를 느끼게 하며, 도쿄 특유의 ‘과잉 문화’를 체험하게 합니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 각각의 구슬들은 빛을 내지않는데 공간 및 서로의 반사 등을 통해 빛을 내면서 아름다운 공간을 창출하는 부분에서 어떤 일을 함에 있어서도 혼자는 빛이 나지 않고 함께 해야 빛이 나는 부분이라는 것을 공간 시각 디자인을 통해 느낄 수 있었습니다.
+- 고급 복합시설을 개발할 때, 사람들에게 계속 회자되며 다양한 인구들을 끌어들일만한 고급스럽고 선도적인 콘텐츠를 확보하되, 실제 거주인구가 외부인의 방문으로 인한 불편함을 느끼지 않도록하며, 또 시설 바깥의 사람들에겐 위화감을 주지 않는 구성과 기획이 중요한 것 같다. 그런 점에서 팀랩보더리스는 트렌디하고 선도적인 이미지를 확보하고, 방문객들에겐 명확한 목적성과 동선을 제공하는 기능을 수행한다.
+- 공간 처음 입장하기전 어두운 공간을 들어서자 모든 감각이 몰입되는 경험을 하였습니다. 온몸이 작품의 일부가 되는 완전한 몰입형 예술 경험을 하였습니다. 빛과 공간, 움직임이 경계를 허물며 이어져, 마치 우주의 흐름 속에 떠있는 무중력같은 공간, 차원을 넘나드는 듯했습니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Lovot과 마찬가지로 라이프스타일 카테고리 층에 위치하고 있어, 하나의 새로운 라이프스타일로서 로봇을 정의하려는 시도를 공통적으로 발견할 수 있었다. 한편 같은 장소에 소형의 입김 불어주는 고양이 로봇도 테스트 되고 있어, 사람들이 친숙하게 받아들일 수 있는 로봇의 형태와 다양성에 대한 시험의 장으로서 기능하고 있는 점 또한 확인할 수 있었다. 별도로 금일 방문한 labi 매장에서 반려동물 형태의 교감형 로봇도 발견할 수 있어, 이처럼 정서적 기능의 로봇에 대한 다양한 시도와 수요들이 형성되고 있음을 확인할 수 있었는데, 향후 로봇의 발전이 정서적 기능 로봇의 다양한 버티컬에의 확장일지, 정서 이외 기능의 발견과 수용일지에 상상해볼 수 있는 계기가 되었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 빅카메라… 가전의 매장에서 국내 가전을 거의 볼 수 없었다. 글로벌 no1 을 자랑하는 엘지, 삼성이라는 업체가 일본에서는 힘을 못쓰고 있는 것이다. 가격도 생각보다 비싼데.. 이 프로그램의 목적처럼 왜? 일까 고객 가치관점에서 생각할 게 많을 거 같다
+- 빅카메라를 둘러보면서 일본은 여전히 내수시장이 강한 나라라는 생각이 들었다. 샤프나 파나소닉 같은 자국 브랜드들이 매장 중심에 자리 잡고 있었고, 소비자들도 자연스럽게 그 제품들을 고를 것 같았다. 라디오 같은 오래된 제품군이 여전히 진열되어 있는 걸 보니, 새로운 걸 좇기보다 익숙하고 믿을 수 있는 걸 꾸준히 소비하는 문화가 느껴졌다. 겉으로는 조용하지만, 안으로는 단단한 시장, 그것이 일본의 힘인 것 같다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 긴자식스는 럭셔리 공간이며 모두가 동경할만한 공간에서의 광고 사이니지 배치에 대해 깊이 생각하게 하는 공간이었습니다. 영상에서처럼 가장 주목도가 좋고 노출이 높을만한 공간에 광고 인벤토리를 설치하여 광고주에게 판매한다면 광고 수익 상승에는 유리하겠지만, 공간 전체의 경험은 해치게 될 것 입니다. 긴자식스는 전반적으로 “수익화”할 수 있는 구역을 과감히 수익과 무관한 체험으로 꾸며내며 그 고습스럽고 예술친화적인 차별적 아이덴티티를 구성합니다. 이러한 공간의 원리를 충분히 알고 있는 상황에서 공간주에게 어떻게 광고사업을 제안하는 것이 좋을지, 광고 인벤토리로서 매력적인 공간과 공간 경험을 지켜내는 것 간의 밸런스를 어떻게 맞춰나가며, 공간주와 오디언스, 광고주 모두를 설득할 수 있을지 대한 전략적 고민의 필요성을 또 한 번 절감했습니다.
+- 10여년만에 미술작품 (긴자 식스 내) 을 감상하였습니다. 작품의 의도는 정확히 파악은 안되나 첫번째는 완성보다는 과정이 중요하다는 메세지 / 두번째작품은 불타는 욕망과 잠잠한 무의식을 대비한 거 같습니다. 미술작품 하나하나도 어떤 의미가 있을거고 그걸 보는 고객에게 무엇을 주고자하는지 생각하며 볼 수 있는 시간이었습니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 세 브랜드가 한 층에서 통합적으로 구성되어 있으며, 고가 상권 긴자 속에서도 부담 없이 접근 가능한 생활형 공간으로 느껴졌다. 다이소의 단순 저가 이미지를 넘어, 공간 전체에서 가격보다 ‘가치’와 ‘경험’이 먼저 전달되는 진열 구조가 인상적이었다. 브랜드별로 색감과 질감이 다른 인테리어로 구분되어 있으면서도 하나의 통합 브랜드처럼 자연스럽게 연결되어 있었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 같은 그룹의 세 브랜드가 가격 · 품질 · 디자인이라는 서로 다른 가치축을 한 공간에서 조화시킨 점이 흥미로웠다. 저렴함(DAISO) → 합리적 품질(Standard Products) → 감성적 디자인(THREEPPY) 로 이어지는 단계별 브랜드 피라미드가 고객의 성장 / 라이프사이클과 맞닿아 있었다. 이는 단순 저가 경쟁이 아니라, 고객의 ‘생활 습관 진화’를 지원하는 구조로 해석되며, 긴자라는 상징적 입지 속에서도 존재감을 유지하는 핵심 요인으로 보였다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지역 장인과 협업한 제품 설명이 신뢰감을 높였고, ‘오래 쓸 수 있는 물건’에 대한 일본식 가치관이 녹아 있었다. 지속가능성 + 디자인 + 가격의 균형 이라는 브랜드 메시지가 명확히 전해졌으며, 일상 속 소비의 윤리적 방향을 제시한다는 점이 돋보였다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 내추럴톤의 조명과 미니멀한 진열 방식으로 고급 라이프스타일 숍 같은 분위기. 상품에 소재와 제작 과정 설명 POP이 붙어 있어 단순 구매보다 ‘이야기 있는 물건’을 고르는 느낌을 줌.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 컬러풀하고 트렌디한 비주얼, 다양한 캐릭터 콜라보 제품으로 밝고 경쾌한 분위기. 시즌별 한정 전시와 SNS 사진 존을 통해 ‘찍고 공유하고 즐기는’ 공간으로 구성되어 있었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 20–30대 여성 1인 가구를 핵심 타깃으로 한 세련된 기획 감이 돋보였다. ‘작은 가격으로 일상의 기분을 바꾸는 경험’ 이 명확히 설계되어 있으며, 감성적 소비 트렌드를 가장 잘 반영한 브랜드로 느껴졌다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 옛 우체국의 역사적 공간과 현대적 리모델링이 조화를 이뤘다. 중앙 홀의 개방감과 유리 천장, 계절별 전시 및 야경 감상 포인트가 공간을 ‘머무는 경험’으로 만들었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 쇼핑 보다는 ‘일본의 장인정신과 감성’을 느끼는 문화적 공간 으로 작동했다. ‘기념품 그 이상, 일상 속 작은 특별함’ 을 제안하며 여행객과 현지인을 동시에 포용하는 큐레이션 전략이 돋보였다. 이토야와 마찬가지로 재방문을 유도하는 ‘계절 및 테마 갱신형 운영’ 이 브랜드 충성도를 높이는 핵심 요소로 해석된다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1609,7 +931,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,13 +987,6 @@
       <name val="MS Gothic"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Apple SD Gothic Neo"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2038,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2051,8 +1366,8 @@
     <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="44.1640625" style="2" customWidth="1"/>
-    <col min="7" max="12" width="31.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.1640625" style="2" customWidth="1"/>
+    <col min="7" max="11" width="31.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="45" style="2" customWidth="1"/>
     <col min="14" max="22" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -2061,766 +1376,713 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="394">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.6">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="377">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="409.6">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="409.6">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="342">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="306">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="342">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="409.6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="409.6">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="409.6">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>197</v>
+      <c r="M8" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="409.6">
+    <row r="9" spans="1:13" ht="360">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="409.6">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="J10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="409.6">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="324">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="409.6">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
+        <v>59</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="409.6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>17</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="409.6">
+    <row r="16" spans="1:13" ht="360">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="306">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.6">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>202</v>
+      <c r="K18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="409.6">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="360">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="306">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="D21" s="3"/>
+    <row r="19" spans="1:13">
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2828,7 +2090,7 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{6BFC5780-1583-9341-B8DC-261AA22C2AB4}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{9A231D8F-244D-9447-B8F1-24367EE46DA3}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{FF1ACC63-437D-A044-97DB-DE77CAD7D55C}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{1D72153A-56F6-7F41-B264-1E75738D877F}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{1D72153A-56F6-7F41-B264-1E75738D877F}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{CC7D5A8F-CB35-9F43-A873-BC070232A6A0}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{8F029861-411E-8643-BFC2-DF21D5D8DB0E}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{C940B208-3044-2F4B-9934-7FE17B640645}"/>
@@ -2836,12 +2098,11 @@
     <hyperlink ref="D10" r:id="rId9" xr:uid="{B95C2BEF-4B00-EA42-B8F6-2FC2394C5ED8}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{CC8DF0DD-EC6B-D246-9901-AF7B39ADAC1A}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{C4E5CEE1-C7D6-1047-9381-2E9CEDD7A0AD}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{5D969C1F-CC64-6B46-901A-3514A760BDBE}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{90AF0668-110A-7541-83D6-0B5B569C3FFB}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{67047108-4B5A-A546-9B4C-E717A6B7F5C0}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{4E21878B-38D2-5C4A-AC24-D111C765DD21}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{18A774CE-7EAA-C748-9FC6-CAFE33096A28}"/>
-    <hyperlink ref="D17" r:id="rId17" xr:uid="{AFFB8DFB-853E-834A-BDD1-1A4934B52C3A}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{5D969C1F-CC64-6B46-901A-3514A760BDBE}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{90AF0668-110A-7541-83D6-0B5B569C3FFB}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{4E21878B-38D2-5C4A-AC24-D111C765DD21}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{18A774CE-7EAA-C748-9FC6-CAFE33096A28}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{AFFB8DFB-853E-834A-BDD1-1A4934B52C3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule_tokyo_trip.xlsx
+++ b/schedule_tokyo_trip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joostone/PycharmProjects/lg-mvp-tokyo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A29929-F371-C44D-A2C1-8113A8CD719D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1793FCE-893A-B049-A8BE-D449549CC9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="195">
   <si>
     <t>day</t>
   </si>
@@ -857,17 +857,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>- 머니 스터디 공간에 라인 친구 추가 이벤트가 있어 참여하고 싶었는데 일본어라 포기했다. 사은품 에코백이 생각보다 이뻐보여 아쉬웠다. 한쪽에는 우리나라에서는 이제 보기 힘든 초록색 공중전화기가 눈에 들어왔다. 최신 디지털 금융 공간 한가운데 놓인 그 아날로그 기기가 묘하게 어울렸고, 새로운 것과 오래된 것이 함께 있는 일본 특유의 풍경처럼 느껴졌다.
-- 은행과 까페의 공존.. 우리나라 경우 은행에 가면 1~2시간의 기다림이 있는데 이러한 복합형태의 은행 구성 시 기다림의 시간이 좀 더 행복해지지는 않을지… 
-- 한국의 코워킹 플레이스 사업의 어려움을 많이 접한 것 같은데, 시부야의 다양한 시간제 오피스공간을 보며 유동인구 규모 외에 이들 사업이 지속성울 가지고 가능하게 하는 요인이 무엇인지 궁금해졌다. 한편, 신규 미래 고객의 유치 관점에서 해당 공간을 기획, 운영할 때야말로 더더욱 “차별성“이 필요하며, 차별성의 근간이 되는 츠타야의 데이터 기반 저력에 대한 이야기가 공감이 갔다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 2층 스타벅스 라운지 창가에는 사람들이 빽빽이 서서 밖을 바라보고 있었다. 모두가 커피를 손에 들고 시부야 스크램블 교차로를 지나는 인파를 지켜보는데, 그 풍경이 이 거리를 대표하는 상징적인 장면처럼 느껴졌다. 수많은 사람들이 한순간에 교차하고 흩어지는 모습 속에서 시부야 특유의 활기와 에너지가 전해졌다. 여행 중 잠시 쉬어가면서도 여전히 도시의 움직임을 함께할 수 있는 공간이다.
-- 시부야 츠타야는 시부야 스크램블 교차로 앞이라는 세계적 입지 덕분에 외국인 방문객이 가장 많이 찾는 일본 문화의 상징 공간이라는 생각이 들었습니다. 포켓몬, 슬램덩크 등 일본 대표 IP를 서적·체험·굿즈로 확장해, IP 세계를 직접 체험하며 소비할 수 있는 구조를 만들고 같은 공감대를 가진 사람과 커뮤니티를 확장할수 있는 경험을 줄수 있는 공간이었습니다. 츠타야의 사업모델이 단순 서점이 아닌 문화적 IP 허브이자 도시형 체험 리테일 모델로 진화하고 있는것을 느꼈습니다. 이런 흐름 속에서 츠타야의 사업 방향은 콘텐츠 IP의 플랫폼화, 팬덤 기반 리테일, 글로벌 문화 확산 거점화로 요약되며 즉, 시부야 츠타야는 일본 IP 산업을 체험 중심으로 재구성한 글로벌 콘텐츠 비즈니스의 실험모델이었습니다. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">- 매장 운영 관리시에 가장 지양해야할 부분을 오히려 강점로 내세웠습니다. 복잡한 진열과 과도한 POP남용, 자극적인 연출은 ‘시각적 혼잡’을 통해 쇼핑의 재미와 발견의 즐거움을 유도하는것 같으며 오히려 돈키호테의 공간 아이덴티티로 정립된듯랍니다. 질서 없는 듯한 구성은 ‘보물찾기’ 같은 탐색 욕구를 자극하고, 저가·다양성 이미지를 강화하여 젊은층에게는 에너지와 활기를 느끼게 하며, 도쿄 특유의 ‘과잉 문화’를 체험하게 합니다. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -882,45 +871,62 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>- 빅카메라… 가전의 매장에서 국내 가전을 거의 볼 수 없었다. 글로벌 no1 을 자랑하는 엘지, 삼성이라는 업체가 일본에서는 힘을 못쓰고 있는 것이다. 가격도 생각보다 비싼데.. 이 프로그램의 목적처럼 왜? 일까 고객 가치관점에서 생각할 게 많을 거 같다
-- 빅카메라를 둘러보면서 일본은 여전히 내수시장이 강한 나라라는 생각이 들었다. 샤프나 파나소닉 같은 자국 브랜드들이 매장 중심에 자리 잡고 있었고, 소비자들도 자연스럽게 그 제품들을 고를 것 같았다. 라디오 같은 오래된 제품군이 여전히 진열되어 있는 걸 보니, 새로운 걸 좇기보다 익숙하고 믿을 수 있는 걸 꾸준히 소비하는 문화가 느껴졌다. 겉으로는 조용하지만, 안으로는 단단한 시장, 그것이 일본의 힘인 것 같다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>- 긴자식스는 럭셔리 공간이며 모두가 동경할만한 공간에서의 광고 사이니지 배치에 대해 깊이 생각하게 하는 공간이었습니다. 영상에서처럼 가장 주목도가 좋고 노출이 높을만한 공간에 광고 인벤토리를 설치하여 광고주에게 판매한다면 광고 수익 상승에는 유리하겠지만, 공간 전체의 경험은 해치게 될 것 입니다. 긴자식스는 전반적으로 “수익화”할 수 있는 구역을 과감히 수익과 무관한 체험으로 꾸며내며 그 고습스럽고 예술친화적인 차별적 아이덴티티를 구성합니다. 이러한 공간의 원리를 충분히 알고 있는 상황에서 공간주에게 어떻게 광고사업을 제안하는 것이 좋을지, 광고 인벤토리로서 매력적인 공간과 공간 경험을 지켜내는 것 간의 밸런스를 어떻게 맞춰나가며, 공간주와 오디언스, 광고주 모두를 설득할 수 있을지 대한 전략적 고민의 필요성을 또 한 번 절감했습니다.
 - 10여년만에 미술작품 (긴자 식스 내) 을 감상하였습니다. 작품의 의도는 정확히 파악은 안되나 첫번째는 완성보다는 과정이 중요하다는 메세지 / 두번째작품은 불타는 욕망과 잠잠한 무의식을 대비한 거 같습니다. 미술작품 하나하나도 어떤 의미가 있을거고 그걸 보는 고객에게 무엇을 주고자하는지 생각하며 볼 수 있는 시간이었습니다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>- 세 브랜드가 한 층에서 통합적으로 구성되어 있으며, 고가 상권 긴자 속에서도 부담 없이 접근 가능한 생활형 공간으로 느껴졌다. 다이소의 단순 저가 이미지를 넘어, 공간 전체에서 가격보다 ‘가치’와 ‘경험’이 먼저 전달되는 진열 구조가 인상적이었다. 브랜드별로 색감과 질감이 다른 인테리어로 구분되어 있으면서도 하나의 통합 브랜드처럼 자연스럽게 연결되어 있었다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 같은 그룹의 세 브랜드가 가격 · 품질 · 디자인이라는 서로 다른 가치축을 한 공간에서 조화시킨 점이 흥미로웠다. 저렴함(DAISO) → 합리적 품질(Standard Products) → 감성적 디자인(THREEPPY) 로 이어지는 단계별 브랜드 피라미드가 고객의 성장 / 라이프사이클과 맞닿아 있었다. 이는 단순 저가 경쟁이 아니라, 고객의 ‘생활 습관 진화’를 지원하는 구조로 해석되며, 긴자라는 상징적 입지 속에서도 존재감을 유지하는 핵심 요인으로 보였다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 지역 장인과 협업한 제품 설명이 신뢰감을 높였고, ‘오래 쓸 수 있는 물건’에 대한 일본식 가치관이 녹아 있었다. 지속가능성 + 디자인 + 가격의 균형 이라는 브랜드 메시지가 명확히 전해졌으며, 일상 속 소비의 윤리적 방향을 제시한다는 점이 돋보였다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 내추럴톤의 조명과 미니멀한 진열 방식으로 고급 라이프스타일 숍 같은 분위기. 상품에 소재와 제작 과정 설명 POP이 붙어 있어 단순 구매보다 ‘이야기 있는 물건’을 고르는 느낌을 줌.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 컬러풀하고 트렌디한 비주얼, 다양한 캐릭터 콜라보 제품으로 밝고 경쾌한 분위기. 시즌별 한정 전시와 SNS 사진 존을 통해 ‘찍고 공유하고 즐기는’ 공간으로 구성되어 있었다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 20–30대 여성 1인 가구를 핵심 타깃으로 한 세련된 기획 감이 돋보였다. ‘작은 가격으로 일상의 기분을 바꾸는 경험’ 이 명확히 설계되어 있으며, 감성적 소비 트렌드를 가장 잘 반영한 브랜드로 느껴졌다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 옛 우체국의 역사적 공간과 현대적 리모델링이 조화를 이뤘다. 중앙 홀의 개방감과 유리 천장, 계절별 전시 및 야경 감상 포인트가 공간을 ‘머무는 경험’으로 만들었다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 쇼핑 보다는 ‘일본의 장인정신과 감성’을 느끼는 문화적 공간 으로 작동했다. ‘기념품 그 이상, 일상 속 작은 특별함’ 을 제안하며 여행객과 현지인을 동시에 포용하는 큐레이션 전략이 돋보였다. 이토야와 마찬가지로 재방문을 유도하는 ‘계절 및 테마 갱신형 운영’ 이 브랜드 충성도를 높이는 핵심 요소로 해석된다.</t>
+    <t>- 마루노오치 빌딩에서의 맛있는 밥과 키테에서의 잠시 커피한잔… 그리고 아이들의 기념선물까지.. 잠시 일상에서 벗어난 행복한 시간이었습니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 2층 스타벅스 라운지 창가에는 사람들이 빽빽이 서서 밖을 바라보고 있었다. 모두가 커피를 손에 들고 시부야 스크램블 교차로를 지나는 인파를 지켜보는데, 그 풍경이 이 거리를 대표하는 상징적인 장면처럼 느껴졌다. 수많은 사람들이 한순간에 교차하고 흩어지는 모습 속에서 시부야 특유의 활기와 에너지가 전해졌다. 여행 중 잠시 쉬어가면서도 여전히 도시의 움직임을 함께할 수 있는 공간이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시부야 츠타야는 시부야 스크램블 교차로 앞이라는 세계적 입지 덕분에 외국인 방문객이 가장 많이 찾는 일본 문화의 상징 공간이라는 생각이 들었습니다. 포켓몬, 슬램덩크 등 일본 대표 IP를 서적·체험·굿즈로 확장해, IP 세계를 직접 체험하며 소비할 수 있는 구조를 만들고 같은 공감대를 가진 사람과 커뮤니티를 확장할수 있는 경험을 줄수 있는 공간이었습니다. 츠타야의 사업모델이 단순 서점이 아닌 문화적 IP 허브이자 도시형 체험 리테일 모델로 진화하고 있는것을 느꼈습니다. 이런 흐름 속에서 츠타야의 사업 방향은 콘텐츠 IP의 플랫폼화, 팬덤 기반 리테일, 글로벌 문화 확산 거점화로 요약되며 즉, 시부야 츠타야는 일본 IP 산업을 체험 중심으로 재구성한 글로벌 콘텐츠 비즈니스의 실험모델이었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 한국의 코워킹 플레이스 사업의 어려움을 많이 접한 것 같은데, 시부야의 다양한 시간제 오피스공간을 보며 유동인구 규모 외에 이들 사업이 지속성울 가지고 가능하게 하는 요인이 무엇인지 궁금해졌다. 한편, 신규 미래 고객의 유치 관점에서 해당 공간을 기획, 운영할 때야말로 더더욱 “차별성“이 필요하며, 차별성의 근간이 되는 츠타야의 데이터 기반 저력에 대한 이야기가 공감이 갔다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 머니 스터디 공간에 라인 친구 추가 이벤트가 있어 참여하고 싶었는데 일본어라 포기했다. 사은품 에코백이 생각보다 이뻐보여 아쉬웠다. 한쪽에는 우리나라에서는 이제 보기 힘든 초록색 공중전화기가 눈에 들어왔다. 최신 디지털 금융 공간 한가운데 놓인 그 아날로그 기기가 묘하게 어울렸고, 새로운 것과 오래된 것이 함께 있는 일본 특유의 풍경처럼 느껴졌다.
+- 은행과 까페의 공존.. 우리나라 경우 은행에 가면 1~2시간의 기다림이 있는데 이러한 복합형태의 은행 구성 시 기다림의 시간이 좀 더 행복해지지는 않을지… </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 빅카메라… 가전의 매장에서 국내 가전을 거의 볼 수 없었다. 글로벌 no1 을 자랑하는 엘지, 삼성이라는 업체가 일본에서는 힘을 못쓰고 있는 것이다. 가격도 생각보다 비싼데.. 이 프로그램의 목적처럼 왜? 일까 고객 가치관점에서 생각할 게 많을 거 같다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 빅카메라를 둘러보면서 일본은 여전히 내수시장이 강한 나라라는 생각이 들었다. 샤프나 파나소닉 같은 자국 브랜드들이 매장 중심에 자리 잡고 있었고, 소비자들도 자연스럽게 그 제품들을 고를 것 같았다. 라디오 같은 오래된 제품군이 여전히 진열되어 있는 걸 보니, 새로운 걸 좇기보다 익숙하고 믿을 수 있는 걸 꾸준히 소비하는 문화가 느껴졌다. 겉으로는 조용하지만, 안으로는 단단한 시장, 그것이 일본의 힘인 것 같다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마로니에 게이트 긴자 건물은 1~4층에는 유니클로가 자리하고, 지하층에는 현지인들이 많이 이용하는 OK 할인 슈퍼마켓이 있다. 그리고 6층에는 다이소, 스탠다드 프로덕트, 쓰리피 세 브랜드가 한 공간에 모여 있는 플래그십 층이 구성되어 있었다. 긴자처럼 고가 상권 한복판에 생활형 브랜드들이 한 건물에 자연스럽게 공존하고 있다는 점이 눈에 띄었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 6층은 전체적으로 조용한 분위기였지만, 그 안에서 사람들이 꾸준히 제품을 집어 들고 계산대로 향하는 흐름이 이어져 있어 특유의 ‘말 없는 소비’가 쌓이는 느낌이 있었다. 가장 먼저 보인 다이소는 한국에서 보던 매장보다 훨씬 넓었고, 일본 매장 특유의 잘 정돈된 분위기가 더해져 공간 전체가 안정감 있게 느껴졌다. 사람이 가장 많았음에도 어수선함이 없었고, 익숙한 브랜드임에도 공간의 질서감 덕분에 더 매력적으로 보였다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이어지는 스탠다드 프로덕트는 첫 느낌이 무인양품과 꽤 비슷해 보였다. 크게 새로울 것은 없겠다고 생각했는데, 예상보다 고객이 많아 의외였고, ‘Standard Products’ 이름이 붙은 제품들에서는 나름의 브랜드 가치가 분명하게 전달되는 느낌이 있었다. 디자인 측면에서도 꽤 좋았고, 그에 비해 가격대는 여전히 부담이 없는 수준이었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 세 브랜드가 한 층에서 이어져 있었지만, 가격, 기능, 감성이라는 서로 다른 고객 가치를 조용한 흐름 속에서 자연스럽게 보여주는 공간이었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마지막으로 쓰리피는 대부분 여성 고객들로 가득 차 있었는데, 그 사이에서 나 혼자 사진을 찍느라 조금 민망하기도 했다. 하지만 그만큼 타겟팅이 명확한 공간이라는 점을 바로 이해할 수 있었다. 디즈니 캐릭터 소품들이 많아 딸 선물 찾기에도 좋았고, 제품마다 옆에 놓여져 있는 상세 설명 QR 코드를 통해 한국어로 제품 정보를 바로 확인할 수 있는 점도 꽤 인상적이었다. 다른 백엔숍과 차별화를 고민한 흔적이 곳곳에서 보였고, 실제로 고객 경험 측면에서도 효과가 있을 것 같았다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- ‘KITTE’는 우표 의미의 네이밍과 편지가 사람의 마음을 전한다는 우표의 본질적 메시지를 공간 콘셉트로 확장한 것으로 일본의 가장 좋은것들만 관광객과 고객들에게 전한다는 철학과 맞닿아 있었습니다. 
+질좋은 일본 지역 상품들을 구경하는 재미로 가득한 공간이었습니다. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1355,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1450,7 +1456,7 @@
         <v>165</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6">
@@ -1691,7 +1697,7 @@
         <v>90</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>176</v>
@@ -1773,7 +1779,10 @@
         <v>102</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6">
@@ -1811,7 +1820,10 @@
         <v>102</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="409.6">
@@ -1849,7 +1861,10 @@
         <v>139</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="324">
@@ -1886,10 +1901,9 @@
       <c r="K13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="409.6">
       <c r="A14" s="2" t="s">
@@ -1925,8 +1939,8 @@
       <c r="K14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>180</v>
+      <c r="M14" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6">
@@ -1964,10 +1978,10 @@
         <v>162</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="360">
@@ -1998,11 +2012,8 @@
       <c r="I16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="M16" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="306">
@@ -2034,10 +2045,10 @@
         <v>160</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="409.6">
@@ -2075,10 +2086,10 @@
         <v>43</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:13">
